--- a/SAP/TFI Nicolas Rubino - CareMonitor NO ES EL QUE VA.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor NO ES EL QUE VA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9091F-D8E1-4413-9507-E26139E31421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="649" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -1188,26 +1187,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="18">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="175" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="178" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="179" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="180" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="175" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="178" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="179" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -2988,16 +2987,16 @@
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3008,13 +3007,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="782">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3028,8 +3027,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,28 +3046,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3080,13 +3079,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3102,9 +3101,9 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3117,13 +3116,13 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,7 +3132,7 @@
     <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3145,29 +3144,29 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3193,55 +3192,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="51" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="51" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="67" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="67" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="65" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="65" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3276,63 +3275,63 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="55" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,13 +3343,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3358,14 +3357,14 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3378,10 +3377,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,14 +3392,14 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3412,87 +3411,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3505,12 +3504,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="7" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="7" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3529,38 +3528,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3589,16 +3588,16 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3607,7 +3606,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3623,7 +3622,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3632,7 +3631,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3640,16 +3639,16 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3675,19 +3674,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3777,7 +3776,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3786,16 +3785,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3804,17 +3803,17 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3864,13 +3863,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3879,7 +3878,7 @@
     <xf numFmtId="9" fontId="9" fillId="2" borderId="92" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3900,13 +3899,13 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="15" borderId="93" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="15" borderId="93" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3930,10 +3929,10 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3948,8 +3947,8 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3959,26 +3958,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="9" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="10" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4006,7 +4005,7 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4015,22 +4014,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4039,7 +4038,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4048,75 +4047,75 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="105" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="105" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="59" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="59" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="106" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="106" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="106" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="106" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4125,13 +4124,13 @@
     <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4140,8 +4139,8 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4149,16 +4148,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4167,37 +4166,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="8" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,7 +4205,7 @@
     <xf numFmtId="1" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4215,19 +4214,19 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="62" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="62" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4245,10 +4244,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4273,13 +4272,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
@@ -4301,16 +4300,16 @@
     <xf numFmtId="0" fontId="30" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4320,33 +4319,33 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4362,9 +4361,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="12" fillId="19" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="12" fillId="19" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="30" fillId="15" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="30" fillId="15" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4458,192 +4508,141 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4654,6 +4653,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4680,13 +4688,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4722,14 +4730,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4749,10 +4763,34 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4761,45 +4799,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4809,20 +4808,44 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4863,30 +4886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5013,10 +5012,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5099,32 +5098,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Euro" xfId="11"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="14"/>
+    <cellStyle name="Hipervínculo 3" xfId="17"/>
+    <cellStyle name="Hipervínculo 4" xfId="16"/>
+    <cellStyle name="Hipervínculo 5" xfId="20"/>
+    <cellStyle name="Hyperlink 2" xfId="12"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 2" xfId="10"/>
+    <cellStyle name="Moneda 2 2" xfId="23"/>
+    <cellStyle name="Moneda 3" xfId="19"/>
+    <cellStyle name="Moneda 3 2" xfId="25"/>
+    <cellStyle name="Moneda 4" xfId="22"/>
+    <cellStyle name="Moneda 5" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 2 14" xfId="4"/>
+    <cellStyle name="Normal 2 15" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="18"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="21"/>
+    <cellStyle name="Normal 6" xfId="7"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="15"/>
+    <cellStyle name="Porcentaje 3" xfId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5151,7 +5150,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5237,7 +5236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5543,7 +5542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -5588,7 +5587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -5630,7 +5629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5660,7 +5659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5719,7 +5718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5737,7 +5736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2022 </c:v>
+                  <c:v>Ingresos 2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6081,6 +6080,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6104,7 +6104,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6115,7 +6115,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6152,7 +6154,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6165,7 +6167,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6173,6 +6177,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6196,7 +6201,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6207,7 +6212,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6244,7 +6251,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6294,7 +6301,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6336,7 +6343,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6359,13 +6366,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6416,6 +6423,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6423,7 +6431,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6447,7 +6454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6523,7 +6530,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6889,7 +6896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177979744"/>
@@ -6948,7 +6955,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022353200"/>
@@ -6990,7 +6997,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7020,7 +7027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7096,7 +7103,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7297,7 +7304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1173350528"/>
@@ -7370,7 +7377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025409232"/>
@@ -7412,7 +7419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7442,7 +7449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7518,7 +7525,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8481,7 +8488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -8540,7 +8547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -8582,7 +8589,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8612,7 +8619,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8693,7 +8700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8722,7 +8729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8775,7 +8782,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8866,7 +8873,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8928,7 +8935,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9019,7 +9026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9072,7 +9079,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9208,7 +9215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -9273,12 +9280,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9286,7 +9294,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -9326,7 +9333,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9402,7 +9409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10365,7 +10372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -10424,7 +10431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -10466,7 +10473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10496,7 +10503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10585,7 +10592,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10614,7 +10621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10667,7 +10674,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10758,7 +10765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10820,7 +10827,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10911,7 +10918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10964,7 +10971,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -11100,7 +11107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -11165,12 +11172,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11178,7 +11186,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -11218,7 +11225,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11269,6 +11276,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11294,7 +11302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12257,7 +12265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -12316,7 +12324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -12333,6 +12341,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12358,7 +12367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12388,7 +12397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12477,7 +12486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12506,7 +12515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12559,7 +12568,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12572,6 +12581,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12650,7 +12660,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12712,7 +12722,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12725,6 +12735,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12803,7 +12814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12856,7 +12867,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12869,6 +12880,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12992,7 +13004,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -13027,6 +13039,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -13057,12 +13070,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13070,7 +13084,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13110,7 +13123,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13169,7 +13182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13187,7 +13200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2020 </c:v>
+                  <c:v>Ingresos 2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13299,7 +13312,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13348,7 +13361,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -13359,7 +13372,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-61DD-4CD8-B158-0B704BE81697}"/>
                 </c:ext>
@@ -13390,7 +13405,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13429,7 +13444,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13450,13 +13465,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13507,6 +13522,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13514,7 +13530,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13538,7 +13553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13597,7 +13612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13615,7 +13630,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2021 </c:v>
+                  <c:v>Ingresos 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13959,6 +13974,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -13982,7 +13998,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13993,7 +14009,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14001,6 +14019,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -14024,7 +14043,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14035,7 +14054,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14043,6 +14064,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -14066,7 +14088,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14077,7 +14099,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14108,7 +14132,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14150,7 +14174,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14190,7 +14214,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -14213,13 +14237,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14270,6 +14294,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14277,7 +14302,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14301,7 +14325,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23234,7 +23258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
@@ -23286,7 +23310,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23295,7 +23319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23336,17 +23360,17 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="672" t="s">
+      <c r="B3" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="673"/>
-      <c r="D3" s="674"/>
-      <c r="G3" s="688" t="s">
+      <c r="C3" s="663"/>
+      <c r="D3" s="664"/>
+      <c r="G3" s="686" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="689"/>
-      <c r="I3" s="689"/>
-      <c r="J3" s="690"/>
+      <c r="H3" s="687"/>
+      <c r="I3" s="687"/>
+      <c r="J3" s="688"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44">
@@ -23417,13 +23441,13 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="660" t="s">
+      <c r="B9" s="665" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="661"/>
-      <c r="D9" s="661"/>
-      <c r="E9" s="661"/>
-      <c r="F9" s="662"/>
+      <c r="C9" s="666"/>
+      <c r="D9" s="666"/>
+      <c r="E9" s="666"/>
+      <c r="F9" s="667"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="155" t="s">
@@ -23730,12 +23754,12 @@
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="672" t="s">
+      <c r="B30" s="662" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="673"/>
-      <c r="D30" s="673"/>
-      <c r="E30" s="674"/>
+      <c r="C30" s="663"/>
+      <c r="D30" s="663"/>
+      <c r="E30" s="664"/>
       <c r="F30" s="159"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -23815,8 +23839,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="686"/>
-      <c r="H35" s="686"/>
+      <c r="G35" s="689"/>
+      <c r="H35" s="689"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="136" t="s">
@@ -23832,8 +23856,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="687"/>
-      <c r="H36" s="687"/>
+      <c r="G36" s="690"/>
+      <c r="H36" s="690"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="136" t="s">
@@ -23849,8 +23873,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="686"/>
-      <c r="H37" s="686"/>
+      <c r="G37" s="689"/>
+      <c r="H37" s="689"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="136" t="s">
@@ -23866,8 +23890,8 @@
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="G38" s="687"/>
-      <c r="H38" s="687"/>
+      <c r="G38" s="690"/>
+      <c r="H38" s="690"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="136" t="s">
@@ -23883,8 +23907,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="687"/>
-      <c r="H39" s="687"/>
+      <c r="G39" s="690"/>
+      <c r="H39" s="690"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="136" t="s">
@@ -23900,8 +23924,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="687"/>
-      <c r="H40" s="687"/>
+      <c r="G40" s="690"/>
+      <c r="H40" s="690"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="136" t="s">
@@ -23917,8 +23941,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="686"/>
-      <c r="H41" s="686"/>
+      <c r="G41" s="689"/>
+      <c r="H41" s="689"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="136" t="s">
@@ -23934,8 +23958,8 @@
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="G42" s="686"/>
-      <c r="H42" s="686"/>
+      <c r="G42" s="689"/>
+      <c r="H42" s="689"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="136" t="s">
@@ -23984,12 +24008,12 @@
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="672" t="s">
+      <c r="B48" s="662" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="673"/>
-      <c r="D48" s="673"/>
-      <c r="E48" s="674"/>
+      <c r="C48" s="663"/>
+      <c r="D48" s="663"/>
+      <c r="E48" s="664"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="155" t="s">
@@ -24213,12 +24237,12 @@
     </row>
     <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="672" t="s">
+      <c r="B66" s="662" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="673"/>
-      <c r="D66" s="673"/>
-      <c r="E66" s="674"/>
+      <c r="C66" s="663"/>
+      <c r="D66" s="663"/>
+      <c r="E66" s="664"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="155" t="s">
@@ -24442,13 +24466,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="G35:H35"/>
@@ -24460,6 +24477,13 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24468,7 +24492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -24514,17 +24538,17 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="672" t="s">
+      <c r="B3" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="673"/>
-      <c r="D3" s="674"/>
+      <c r="C3" s="663"/>
+      <c r="D3" s="664"/>
       <c r="E3" s="39"/>
-      <c r="I3" s="672" t="s">
+      <c r="I3" s="662" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="673"/>
-      <c r="K3" s="674"/>
+      <c r="J3" s="663"/>
+      <c r="K3" s="664"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="34">
@@ -24591,55 +24615,55 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="707" t="s">
+      <c r="B8" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="708"/>
-      <c r="D8" s="708"/>
-      <c r="E8" s="708"/>
-      <c r="F8" s="708"/>
-      <c r="G8" s="708"/>
-      <c r="H8" s="708"/>
-      <c r="I8" s="708"/>
-      <c r="J8" s="708"/>
-      <c r="K8" s="708"/>
-      <c r="L8" s="708"/>
-      <c r="M8" s="709"/>
+      <c r="C8" s="695"/>
+      <c r="D8" s="695"/>
+      <c r="E8" s="695"/>
+      <c r="F8" s="695"/>
+      <c r="G8" s="695"/>
+      <c r="H8" s="695"/>
+      <c r="I8" s="695"/>
+      <c r="J8" s="695"/>
+      <c r="K8" s="695"/>
+      <c r="L8" s="695"/>
+      <c r="M8" s="696"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="704" t="s">
+      <c r="B9" s="691" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="705" t="s">
+      <c r="C9" s="692" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="705" t="s">
+      <c r="D9" s="692" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="699" t="s">
+      <c r="E9" s="707" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="697" t="s">
+      <c r="F9" s="705" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="704" t="s">
+      <c r="G9" s="691" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="705"/>
-      <c r="I9" s="705"/>
-      <c r="J9" s="706"/>
-      <c r="K9" s="704" t="s">
+      <c r="H9" s="692"/>
+      <c r="I9" s="692"/>
+      <c r="J9" s="693"/>
+      <c r="K9" s="691" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="705"/>
-      <c r="M9" s="706"/>
+      <c r="L9" s="692"/>
+      <c r="M9" s="693"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="710"/>
-      <c r="C10" s="711"/>
-      <c r="D10" s="711"/>
-      <c r="E10" s="700"/>
-      <c r="F10" s="698"/>
+      <c r="B10" s="697"/>
+      <c r="C10" s="698"/>
+      <c r="D10" s="698"/>
+      <c r="E10" s="708"/>
+      <c r="F10" s="706"/>
       <c r="G10" s="203" t="s">
         <v>134</v>
       </c>
@@ -24663,7 +24687,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="701" t="s">
+      <c r="B11" s="709" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="187" t="s">
@@ -24705,7 +24729,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="702"/>
+      <c r="B12" s="710"/>
       <c r="C12" s="164" t="s">
         <v>113</v>
       </c>
@@ -24745,7 +24769,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="702"/>
+      <c r="B13" s="710"/>
       <c r="C13" s="164" t="s">
         <v>113</v>
       </c>
@@ -24784,7 +24808,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="702"/>
+      <c r="B14" s="710"/>
       <c r="C14" s="164" t="s">
         <v>135</v>
       </c>
@@ -24824,7 +24848,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="702"/>
+      <c r="B15" s="710"/>
       <c r="C15" s="164" t="s">
         <v>135</v>
       </c>
@@ -24863,7 +24887,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="702"/>
+      <c r="B16" s="710"/>
       <c r="C16" s="164" t="s">
         <v>115</v>
       </c>
@@ -24903,7 +24927,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="702"/>
+      <c r="B17" s="710"/>
       <c r="C17" s="164" t="s">
         <v>115</v>
       </c>
@@ -24942,7 +24966,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="702"/>
+      <c r="B18" s="710"/>
       <c r="C18" s="164" t="s">
         <v>138</v>
       </c>
@@ -24982,7 +25006,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="703"/>
+      <c r="B19" s="711"/>
       <c r="C19" s="196" t="s">
         <v>138</v>
       </c>
@@ -25021,7 +25045,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="691" t="s">
+      <c r="B20" s="699" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="136" t="s">
@@ -25063,7 +25087,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="693"/>
+      <c r="B21" s="701"/>
       <c r="C21" s="136" t="s">
         <v>160</v>
       </c>
@@ -25101,7 +25125,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="701" t="s">
+      <c r="B22" s="709" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="187" t="s">
@@ -25143,7 +25167,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="702"/>
+      <c r="B23" s="710"/>
       <c r="C23" s="164" t="s">
         <v>126</v>
       </c>
@@ -25182,7 +25206,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="702"/>
+      <c r="B24" s="710"/>
       <c r="C24" s="164" t="s">
         <v>126</v>
       </c>
@@ -25220,7 +25244,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="702"/>
+      <c r="B25" s="710"/>
       <c r="C25" s="164" t="s">
         <v>126</v>
       </c>
@@ -25257,7 +25281,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="702"/>
+      <c r="B26" s="710"/>
       <c r="C26" s="164" t="s">
         <v>131</v>
       </c>
@@ -25297,7 +25321,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="702"/>
+      <c r="B27" s="710"/>
       <c r="C27" s="164" t="s">
         <v>131</v>
       </c>
@@ -25334,7 +25358,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="702"/>
+      <c r="B28" s="710"/>
       <c r="C28" s="164" t="s">
         <v>124</v>
       </c>
@@ -25374,7 +25398,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="702"/>
+      <c r="B29" s="710"/>
       <c r="C29" s="164" t="s">
         <v>125</v>
       </c>
@@ -25414,7 +25438,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="703"/>
+      <c r="B30" s="711"/>
       <c r="C30" s="196" t="s">
         <v>125</v>
       </c>
@@ -25452,7 +25476,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="691" t="s">
+      <c r="B31" s="699" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="187" t="s">
@@ -25494,7 +25518,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="692"/>
+      <c r="B32" s="700"/>
       <c r="C32" s="164" t="s">
         <v>123</v>
       </c>
@@ -25533,7 +25557,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="692"/>
+      <c r="B33" s="700"/>
       <c r="C33" s="164" t="s">
         <v>123</v>
       </c>
@@ -25571,7 +25595,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="692"/>
+      <c r="B34" s="700"/>
       <c r="C34" s="164" t="s">
         <v>123</v>
       </c>
@@ -25608,7 +25632,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="692"/>
+      <c r="B35" s="700"/>
       <c r="C35" s="164" t="s">
         <v>130</v>
       </c>
@@ -25648,7 +25672,7 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="692"/>
+      <c r="B36" s="700"/>
       <c r="C36" s="164" t="s">
         <v>130</v>
       </c>
@@ -25687,7 +25711,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="692"/>
+      <c r="B37" s="700"/>
       <c r="C37" s="164" t="s">
         <v>130</v>
       </c>
@@ -25725,7 +25749,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="693"/>
+      <c r="B38" s="701"/>
       <c r="C38" s="196" t="s">
         <v>130</v>
       </c>
@@ -25762,17 +25786,17 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="694" t="s">
+      <c r="B39" s="702" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="695"/>
-      <c r="D39" s="695"/>
-      <c r="E39" s="695"/>
-      <c r="F39" s="695"/>
-      <c r="G39" s="695"/>
-      <c r="H39" s="695"/>
-      <c r="I39" s="695"/>
-      <c r="J39" s="696"/>
+      <c r="C39" s="703"/>
+      <c r="D39" s="703"/>
+      <c r="E39" s="703"/>
+      <c r="F39" s="703"/>
+      <c r="G39" s="703"/>
+      <c r="H39" s="703"/>
+      <c r="I39" s="703"/>
+      <c r="J39" s="704"/>
       <c r="K39" s="206">
         <f t="shared" ref="K39:M39" si="13">SUM(K11:K38)</f>
         <v>141277.33333333334</v>
@@ -25788,6 +25812,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B30"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="G9:J9"/>
@@ -25796,13 +25827,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25811,7 +25835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -25857,11 +25881,11 @@
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H3" s="71"/>
-      <c r="K3" s="672" t="s">
+      <c r="K3" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="673"/>
-      <c r="M3" s="674"/>
+      <c r="L3" s="663"/>
+      <c r="M3" s="664"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H4" s="70"/>
@@ -25910,11 +25934,11 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H8" s="71"/>
-      <c r="K8" s="672" t="s">
+      <c r="K8" s="662" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="673"/>
-      <c r="M8" s="674"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="664"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="70"/>
@@ -25929,14 +25953,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="660" t="s">
+      <c r="B10" s="665" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="661"/>
-      <c r="D10" s="661"/>
-      <c r="E10" s="661"/>
-      <c r="F10" s="661"/>
-      <c r="G10" s="662"/>
+      <c r="C10" s="666"/>
+      <c r="D10" s="666"/>
+      <c r="E10" s="666"/>
+      <c r="F10" s="666"/>
+      <c r="G10" s="667"/>
       <c r="H10" s="92"/>
       <c r="J10" s="258" t="s">
         <v>145</v>
@@ -26067,11 +26091,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="672" t="s">
+      <c r="K14" s="662" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="673"/>
-      <c r="M14" s="674"/>
+      <c r="L14" s="663"/>
+      <c r="M14" s="664"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="719"/>
@@ -26175,12 +26199,12 @@
         <f>G16-G17-M16</f>
         <v>572406658.22722721</v>
       </c>
-      <c r="J18" s="672" t="s">
+      <c r="J18" s="662" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="673"/>
-      <c r="L18" s="673"/>
-      <c r="M18" s="674"/>
+      <c r="K18" s="663"/>
+      <c r="L18" s="663"/>
+      <c r="M18" s="664"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="728" t="s">
@@ -26359,7 +26383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -26401,14 +26425,14 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="689"/>
-      <c r="D4" s="689"/>
-      <c r="E4" s="689"/>
-      <c r="F4" s="689"/>
-      <c r="G4" s="690"/>
+      <c r="C4" s="687"/>
+      <c r="D4" s="687"/>
+      <c r="E4" s="687"/>
+      <c r="F4" s="687"/>
+      <c r="G4" s="688"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="291" t="s">
@@ -26727,7 +26751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28573,7 +28597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -29388,7 +29412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -30192,7 +30216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -30919,7 +30943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31037,17 +31061,17 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="672" t="s">
+      <c r="B12" s="662" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="673"/>
-      <c r="D12" s="673"/>
-      <c r="E12" s="673"/>
-      <c r="F12" s="673"/>
-      <c r="G12" s="673"/>
-      <c r="H12" s="673"/>
-      <c r="I12" s="673"/>
-      <c r="J12" s="674"/>
+      <c r="C12" s="663"/>
+      <c r="D12" s="663"/>
+      <c r="E12" s="663"/>
+      <c r="F12" s="663"/>
+      <c r="G12" s="663"/>
+      <c r="H12" s="663"/>
+      <c r="I12" s="663"/>
+      <c r="J12" s="664"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="779" t="s">
@@ -31156,19 +31180,19 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="P10:Q11"/>
     </sheetView>
   </sheetViews>
@@ -35581,21 +35605,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D9" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D10" location="'Mod. Egresos'!A1" display="Modelo de egresos" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D11" location="'Mod. Inversión'!A1" display="Modelo de inversión" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D12" location="Amortizaciones!A1" display="Amortizaciones" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D13" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D14" location="'Matriz Riesgo'!A1" display="Matriz de riesgos" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D15" location="'Escenario 1'!A1" display="Escenario 1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D18" location="'Plan de Contingencia'!A1" display="Plan de contingencia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D16" location="'Escenario 2'!A1" display="Escenario 2" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D17" location="'Escenario 3'!A1" display="Escenario 3" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis"/>
+    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
+    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
+    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
+    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
+    <hyperlink ref="D9" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH"/>
+    <hyperlink ref="D10" location="'Mod. Egresos'!A1" display="Modelo de egresos"/>
+    <hyperlink ref="D11" location="'Mod. Inversión'!A1" display="Modelo de inversión"/>
+    <hyperlink ref="D12" location="Amortizaciones!A1" display="Amortizaciones"/>
+    <hyperlink ref="D13" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero"/>
+    <hyperlink ref="D14" location="'Matriz Riesgo'!A1" display="Matriz de riesgos"/>
+    <hyperlink ref="D15" location="'Escenario 1'!A1" display="Escenario 1"/>
+    <hyperlink ref="D18" location="'Plan de Contingencia'!A1" display="Plan de contingencia"/>
+    <hyperlink ref="D16" location="'Escenario 2'!A1" display="Escenario 2"/>
+    <hyperlink ref="D17" location="'Escenario 3'!A1" display="Escenario 3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35603,7 +35627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -35640,58 +35664,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="542" t="s">
+      <c r="B3" s="559" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="543"/>
-      <c r="D3" s="543"/>
-      <c r="E3" s="543"/>
-      <c r="F3" s="543"/>
-      <c r="G3" s="543"/>
-      <c r="H3" s="543"/>
-      <c r="I3" s="543"/>
-      <c r="J3" s="544"/>
+      <c r="C3" s="560"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="560"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="560"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="551" t="s">
+      <c r="B4" s="568" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="552"/>
-      <c r="D4" s="552"/>
-      <c r="E4" s="552"/>
-      <c r="F4" s="552"/>
-      <c r="G4" s="552"/>
-      <c r="H4" s="552"/>
-      <c r="I4" s="552"/>
-      <c r="J4" s="553"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="569"/>
+      <c r="J4" s="570"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="571" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555"/>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="555"/>
-      <c r="J7" s="556"/>
+      <c r="C7" s="572"/>
+      <c r="D7" s="572"/>
+      <c r="E7" s="572"/>
+      <c r="F7" s="572"/>
+      <c r="G7" s="572"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="572"/>
+      <c r="J7" s="573"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="557" t="s">
+      <c r="B8" s="574" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="558"/>
-      <c r="D8" s="558"/>
-      <c r="E8" s="558"/>
-      <c r="F8" s="558"/>
-      <c r="G8" s="558"/>
-      <c r="H8" s="558"/>
-      <c r="I8" s="558"/>
-      <c r="J8" s="559"/>
+      <c r="C8" s="575"/>
+      <c r="D8" s="575"/>
+      <c r="E8" s="575"/>
+      <c r="F8" s="575"/>
+      <c r="G8" s="575"/>
+      <c r="H8" s="575"/>
+      <c r="I8" s="575"/>
+      <c r="J8" s="576"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="68"/>
@@ -35763,30 +35787,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="560" t="s">
+      <c r="B15" s="577" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="561"/>
-      <c r="D15" s="561"/>
-      <c r="E15" s="561"/>
-      <c r="F15" s="561"/>
-      <c r="G15" s="561"/>
-      <c r="H15" s="561"/>
-      <c r="I15" s="561"/>
-      <c r="J15" s="562"/>
+      <c r="C15" s="578"/>
+      <c r="D15" s="578"/>
+      <c r="E15" s="578"/>
+      <c r="F15" s="578"/>
+      <c r="G15" s="578"/>
+      <c r="H15" s="578"/>
+      <c r="I15" s="578"/>
+      <c r="J15" s="579"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="563" t="s">
+      <c r="B16" s="580" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="564"/>
-      <c r="D16" s="564"/>
-      <c r="E16" s="564"/>
-      <c r="F16" s="564"/>
-      <c r="G16" s="564"/>
-      <c r="H16" s="564"/>
-      <c r="I16" s="564"/>
-      <c r="J16" s="565"/>
+      <c r="C16" s="581"/>
+      <c r="D16" s="581"/>
+      <c r="E16" s="581"/>
+      <c r="F16" s="581"/>
+      <c r="G16" s="581"/>
+      <c r="H16" s="581"/>
+      <c r="I16" s="581"/>
+      <c r="J16" s="582"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
@@ -35856,11 +35880,11 @@
       <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="545" t="s">
+      <c r="B22" s="562" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="546"/>
-      <c r="D22" s="547"/>
+      <c r="C22" s="563"/>
+      <c r="D22" s="564"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -36049,13 +36073,13 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="542" t="s">
+      <c r="B33" s="559" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="543"/>
-      <c r="D33" s="543"/>
-      <c r="E33" s="543"/>
-      <c r="F33" s="544"/>
+      <c r="C33" s="560"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="560"/>
+      <c r="F33" s="561"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
@@ -36081,91 +36105,91 @@
       <c r="N34" s="57"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="542" t="s">
+      <c r="B35" s="559" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="566"/>
-      <c r="D35" s="566"/>
-      <c r="E35" s="566"/>
-      <c r="F35" s="567"/>
+      <c r="C35" s="583"/>
+      <c r="D35" s="583"/>
+      <c r="E35" s="583"/>
+      <c r="F35" s="584"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="548" t="s">
+      <c r="B36" s="565" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="568" t="s">
+      <c r="C36" s="585" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="568"/>
-      <c r="E36" s="568"/>
-      <c r="F36" s="568"/>
+      <c r="D36" s="585"/>
+      <c r="E36" s="585"/>
+      <c r="F36" s="585"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="549"/>
-      <c r="C37" s="568"/>
-      <c r="D37" s="568"/>
-      <c r="E37" s="568"/>
-      <c r="F37" s="568"/>
+      <c r="B37" s="566"/>
+      <c r="C37" s="585"/>
+      <c r="D37" s="585"/>
+      <c r="E37" s="585"/>
+      <c r="F37" s="585"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="549"/>
-      <c r="C38" s="568"/>
-      <c r="D38" s="568"/>
-      <c r="E38" s="568"/>
-      <c r="F38" s="568"/>
+      <c r="B38" s="566"/>
+      <c r="C38" s="585"/>
+      <c r="D38" s="585"/>
+      <c r="E38" s="585"/>
+      <c r="F38" s="585"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="549"/>
-      <c r="C39" s="538" t="s">
+      <c r="B39" s="566"/>
+      <c r="C39" s="555" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="538"/>
-      <c r="E39" s="538"/>
-      <c r="F39" s="538"/>
+      <c r="D39" s="555"/>
+      <c r="E39" s="555"/>
+      <c r="F39" s="555"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="549"/>
-      <c r="C40" s="538"/>
-      <c r="D40" s="538"/>
-      <c r="E40" s="538"/>
-      <c r="F40" s="538"/>
+      <c r="B40" s="566"/>
+      <c r="C40" s="555"/>
+      <c r="D40" s="555"/>
+      <c r="E40" s="555"/>
+      <c r="F40" s="555"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="549"/>
-      <c r="C41" s="538"/>
-      <c r="D41" s="538"/>
-      <c r="E41" s="538"/>
-      <c r="F41" s="538"/>
+      <c r="B41" s="566"/>
+      <c r="C41" s="555"/>
+      <c r="D41" s="555"/>
+      <c r="E41" s="555"/>
+      <c r="F41" s="555"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="549"/>
-      <c r="C42" s="539" t="s">
+      <c r="B42" s="566"/>
+      <c r="C42" s="556" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="539"/>
-      <c r="E42" s="539"/>
-      <c r="F42" s="539"/>
+      <c r="D42" s="556"/>
+      <c r="E42" s="556"/>
+      <c r="F42" s="556"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="549"/>
-      <c r="C43" s="539"/>
-      <c r="D43" s="539"/>
-      <c r="E43" s="539"/>
-      <c r="F43" s="539"/>
+      <c r="B43" s="566"/>
+      <c r="C43" s="556"/>
+      <c r="D43" s="556"/>
+      <c r="E43" s="556"/>
+      <c r="F43" s="556"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="550"/>
-      <c r="C44" s="539"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="539"/>
-      <c r="F44" s="539"/>
+      <c r="B44" s="567"/>
+      <c r="C44" s="556"/>
+      <c r="D44" s="556"/>
+      <c r="E44" s="556"/>
+      <c r="F44" s="556"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="540" t="s">
+      <c r="B47" s="557" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="541"/>
+      <c r="C47" s="558"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="368" t="s">
@@ -36176,61 +36200,55 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="569" t="s">
+      <c r="B49" s="538" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="578">
+      <c r="C49" s="547">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="570"/>
-      <c r="C50" s="578"/>
+      <c r="B50" s="539"/>
+      <c r="C50" s="547"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="571"/>
-      <c r="C51" s="579"/>
+      <c r="B51" s="540"/>
+      <c r="C51" s="548"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="572" t="s">
+      <c r="B52" s="541" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="580">
+      <c r="C52" s="549">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="573"/>
-      <c r="C53" s="581"/>
+      <c r="B53" s="542"/>
+      <c r="C53" s="550"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="574"/>
-      <c r="C54" s="582"/>
+      <c r="B54" s="543"/>
+      <c r="C54" s="551"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="575" t="s">
+      <c r="B55" s="544" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="583">
+      <c r="C55" s="552">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="576"/>
-      <c r="C56" s="584"/>
+      <c r="B56" s="545"/>
+      <c r="C56" s="553"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="577"/>
-      <c r="C57" s="585"/>
+      <c r="B57" s="546"/>
+      <c r="C57" s="554"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -36245,6 +36263,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36253,14 +36277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI155"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36380,25 +36404,25 @@
     </row>
     <row r="5" spans="1:61" s="52" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
-      <c r="B5" s="601" t="s">
+      <c r="B5" s="610" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="604"/>
+      <c r="C5" s="611"/>
+      <c r="D5" s="613"/>
       <c r="E5" s="417"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="601" t="s">
+      <c r="I5" s="610" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="602"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="602"/>
-      <c r="M5" s="602"/>
-      <c r="N5" s="602"/>
-      <c r="O5" s="602"/>
-      <c r="P5" s="604"/>
+      <c r="J5" s="611"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="611"/>
+      <c r="M5" s="611"/>
+      <c r="N5" s="611"/>
+      <c r="O5" s="611"/>
+      <c r="P5" s="613"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
@@ -36443,16 +36467,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="620" t="s">
+      <c r="I6" s="622" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="621"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="621"/>
-      <c r="M6" s="621"/>
-      <c r="N6" s="621"/>
-      <c r="O6" s="621"/>
-      <c r="P6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="623"/>
+      <c r="M6" s="623"/>
+      <c r="N6" s="623"/>
+      <c r="O6" s="623"/>
+      <c r="P6" s="624"/>
       <c r="Q6" s="421"/>
       <c r="R6" s="51"/>
       <c r="S6" s="51"/>
@@ -36500,14 +36524,14 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="623"/>
-      <c r="J7" s="624"/>
-      <c r="K7" s="624"/>
-      <c r="L7" s="624"/>
-      <c r="M7" s="624"/>
-      <c r="N7" s="624"/>
-      <c r="O7" s="624"/>
-      <c r="P7" s="625"/>
+      <c r="I7" s="625"/>
+      <c r="J7" s="626"/>
+      <c r="K7" s="626"/>
+      <c r="L7" s="626"/>
+      <c r="M7" s="626"/>
+      <c r="N7" s="626"/>
+      <c r="O7" s="626"/>
+      <c r="P7" s="627"/>
       <c r="Q7" s="421"/>
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
@@ -36904,48 +36928,48 @@
       <c r="BI14" s="29"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="601" t="s">
+      <c r="A15" s="610" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="602"/>
-      <c r="C15" s="602"/>
-      <c r="D15" s="602"/>
-      <c r="E15" s="602"/>
-      <c r="F15" s="602"/>
-      <c r="G15" s="602"/>
-      <c r="H15" s="603"/>
-      <c r="I15" s="603"/>
-      <c r="J15" s="603"/>
-      <c r="K15" s="603"/>
-      <c r="L15" s="602"/>
-      <c r="M15" s="602"/>
-      <c r="N15" s="602"/>
-      <c r="O15" s="602"/>
-      <c r="P15" s="602"/>
-      <c r="Q15" s="602"/>
-      <c r="R15" s="602"/>
-      <c r="S15" s="602"/>
-      <c r="T15" s="602"/>
-      <c r="U15" s="602"/>
-      <c r="V15" s="602"/>
-      <c r="W15" s="602"/>
-      <c r="X15" s="602"/>
-      <c r="Y15" s="602"/>
-      <c r="Z15" s="602"/>
-      <c r="AA15" s="602"/>
-      <c r="AB15" s="602"/>
-      <c r="AC15" s="602"/>
-      <c r="AD15" s="602"/>
-      <c r="AE15" s="602"/>
-      <c r="AF15" s="602"/>
-      <c r="AG15" s="602"/>
-      <c r="AH15" s="602"/>
-      <c r="AI15" s="602"/>
-      <c r="AJ15" s="602"/>
-      <c r="AK15" s="602"/>
-      <c r="AL15" s="602"/>
-      <c r="AM15" s="602"/>
-      <c r="AN15" s="604"/>
+      <c r="B15" s="611"/>
+      <c r="C15" s="611"/>
+      <c r="D15" s="611"/>
+      <c r="E15" s="611"/>
+      <c r="F15" s="611"/>
+      <c r="G15" s="611"/>
+      <c r="H15" s="612"/>
+      <c r="I15" s="612"/>
+      <c r="J15" s="612"/>
+      <c r="K15" s="612"/>
+      <c r="L15" s="611"/>
+      <c r="M15" s="611"/>
+      <c r="N15" s="611"/>
+      <c r="O15" s="611"/>
+      <c r="P15" s="611"/>
+      <c r="Q15" s="611"/>
+      <c r="R15" s="611"/>
+      <c r="S15" s="611"/>
+      <c r="T15" s="611"/>
+      <c r="U15" s="611"/>
+      <c r="V15" s="611"/>
+      <c r="W15" s="611"/>
+      <c r="X15" s="611"/>
+      <c r="Y15" s="611"/>
+      <c r="Z15" s="611"/>
+      <c r="AA15" s="611"/>
+      <c r="AB15" s="611"/>
+      <c r="AC15" s="611"/>
+      <c r="AD15" s="611"/>
+      <c r="AE15" s="611"/>
+      <c r="AF15" s="611"/>
+      <c r="AG15" s="611"/>
+      <c r="AH15" s="611"/>
+      <c r="AI15" s="611"/>
+      <c r="AJ15" s="611"/>
+      <c r="AK15" s="611"/>
+      <c r="AL15" s="611"/>
+      <c r="AM15" s="611"/>
+      <c r="AN15" s="613"/>
       <c r="AO15" s="29"/>
       <c r="AP15" s="29"/>
       <c r="AQ15" s="29"/>
@@ -36969,76 +36993,76 @@
       <c r="BI15" s="29"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="605" t="s">
+      <c r="A16" s="614" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="605" t="s">
+      <c r="B16" s="614" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="608" t="s">
+      <c r="C16" s="617" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="609"/>
-      <c r="E16" s="591" t="s">
+      <c r="D16" s="618"/>
+      <c r="E16" s="600" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="592"/>
-      <c r="G16" s="593"/>
-      <c r="H16" s="591" t="s">
+      <c r="F16" s="601"/>
+      <c r="G16" s="602"/>
+      <c r="H16" s="600" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="592"/>
-      <c r="J16" s="593"/>
-      <c r="K16" s="591" t="s">
+      <c r="I16" s="601"/>
+      <c r="J16" s="602"/>
+      <c r="K16" s="600" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="592"/>
-      <c r="M16" s="593"/>
-      <c r="N16" s="591" t="s">
+      <c r="L16" s="601"/>
+      <c r="M16" s="602"/>
+      <c r="N16" s="600" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="592"/>
-      <c r="P16" s="593"/>
-      <c r="Q16" s="591" t="s">
+      <c r="O16" s="601"/>
+      <c r="P16" s="602"/>
+      <c r="Q16" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="592"/>
-      <c r="S16" s="593"/>
-      <c r="T16" s="591" t="s">
+      <c r="R16" s="601"/>
+      <c r="S16" s="602"/>
+      <c r="T16" s="600" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="592"/>
-      <c r="V16" s="593"/>
-      <c r="W16" s="591" t="s">
+      <c r="U16" s="601"/>
+      <c r="V16" s="602"/>
+      <c r="W16" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="592"/>
-      <c r="Y16" s="593"/>
-      <c r="Z16" s="591" t="s">
+      <c r="X16" s="601"/>
+      <c r="Y16" s="602"/>
+      <c r="Z16" s="600" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="592"/>
-      <c r="AB16" s="593"/>
-      <c r="AC16" s="591" t="s">
+      <c r="AA16" s="601"/>
+      <c r="AB16" s="602"/>
+      <c r="AC16" s="600" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="592"/>
-      <c r="AE16" s="593"/>
-      <c r="AF16" s="591" t="s">
+      <c r="AD16" s="601"/>
+      <c r="AE16" s="602"/>
+      <c r="AF16" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="AG16" s="592"/>
-      <c r="AH16" s="593"/>
-      <c r="AI16" s="591" t="s">
+      <c r="AG16" s="601"/>
+      <c r="AH16" s="602"/>
+      <c r="AI16" s="600" t="s">
         <v>49</v>
       </c>
-      <c r="AJ16" s="592"/>
-      <c r="AK16" s="593"/>
-      <c r="AL16" s="591" t="s">
+      <c r="AJ16" s="601"/>
+      <c r="AK16" s="602"/>
+      <c r="AL16" s="600" t="s">
         <v>50</v>
       </c>
-      <c r="AM16" s="592"/>
-      <c r="AN16" s="593"/>
+      <c r="AM16" s="601"/>
+      <c r="AN16" s="602"/>
       <c r="AO16" s="29"/>
       <c r="AP16" s="29"/>
       <c r="AQ16" s="29"/>
@@ -37062,74 +37086,74 @@
       <c r="BI16" s="29"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="606"/>
-      <c r="B17" s="606"/>
-      <c r="C17" s="594" t="s">
+      <c r="A17" s="615"/>
+      <c r="B17" s="615"/>
+      <c r="C17" s="603" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="596" t="s">
+      <c r="D17" s="605" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="598">
+      <c r="E17" s="607">
         <v>0.02</v>
       </c>
-      <c r="F17" s="599"/>
-      <c r="G17" s="600"/>
-      <c r="H17" s="598">
+      <c r="F17" s="608"/>
+      <c r="G17" s="609"/>
+      <c r="H17" s="607">
         <v>0.04</v>
       </c>
-      <c r="I17" s="599"/>
-      <c r="J17" s="600"/>
-      <c r="K17" s="598">
+      <c r="I17" s="608"/>
+      <c r="J17" s="609"/>
+      <c r="K17" s="607">
         <v>0.04</v>
       </c>
-      <c r="L17" s="599"/>
-      <c r="M17" s="600"/>
-      <c r="N17" s="598">
+      <c r="L17" s="608"/>
+      <c r="M17" s="609"/>
+      <c r="N17" s="607">
         <v>0.05</v>
       </c>
-      <c r="O17" s="599"/>
-      <c r="P17" s="600"/>
-      <c r="Q17" s="598">
+      <c r="O17" s="608"/>
+      <c r="P17" s="609"/>
+      <c r="Q17" s="607">
         <v>0.06</v>
       </c>
-      <c r="R17" s="599"/>
-      <c r="S17" s="600"/>
-      <c r="T17" s="598">
+      <c r="R17" s="608"/>
+      <c r="S17" s="609"/>
+      <c r="T17" s="607">
         <v>0.08</v>
       </c>
-      <c r="U17" s="599"/>
-      <c r="V17" s="600"/>
-      <c r="W17" s="598">
+      <c r="U17" s="608"/>
+      <c r="V17" s="609"/>
+      <c r="W17" s="607">
         <v>0.1</v>
       </c>
-      <c r="X17" s="599"/>
-      <c r="Y17" s="600"/>
-      <c r="Z17" s="598">
+      <c r="X17" s="608"/>
+      <c r="Y17" s="609"/>
+      <c r="Z17" s="607">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="599"/>
-      <c r="AB17" s="600"/>
-      <c r="AC17" s="598">
+      <c r="AA17" s="608"/>
+      <c r="AB17" s="609"/>
+      <c r="AC17" s="607">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="599"/>
-      <c r="AE17" s="600"/>
-      <c r="AF17" s="598">
+      <c r="AD17" s="608"/>
+      <c r="AE17" s="609"/>
+      <c r="AF17" s="607">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="599"/>
-      <c r="AH17" s="600"/>
-      <c r="AI17" s="598">
+      <c r="AG17" s="608"/>
+      <c r="AH17" s="609"/>
+      <c r="AI17" s="607">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="599"/>
-      <c r="AK17" s="600"/>
-      <c r="AL17" s="598">
+      <c r="AJ17" s="608"/>
+      <c r="AK17" s="609"/>
+      <c r="AL17" s="607">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="599"/>
-      <c r="AN17" s="600"/>
+      <c r="AM17" s="608"/>
+      <c r="AN17" s="609"/>
       <c r="AO17" s="29"/>
       <c r="AP17" s="29"/>
       <c r="AQ17" s="29"/>
@@ -37153,10 +37177,10 @@
       <c r="BI17" s="29"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="607"/>
-      <c r="B18" s="607"/>
-      <c r="C18" s="595"/>
-      <c r="D18" s="597"/>
+      <c r="A18" s="616"/>
+      <c r="B18" s="616"/>
+      <c r="C18" s="604"/>
+      <c r="D18" s="628"/>
       <c r="E18" s="419"/>
       <c r="F18" s="378" t="s">
         <v>58</v>
@@ -37744,10 +37768,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="589" t="s">
+      <c r="A22" s="598" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="590"/>
+      <c r="B22" s="599"/>
       <c r="C22" s="382">
         <f>SUM(C19:C21)</f>
         <v>60730</v>
@@ -38832,32 +38856,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="615" t="s">
+      <c r="A52" s="586" t="s">
         <v>246</v>
       </c>
-      <c r="B52" s="616"/>
-      <c r="C52" s="616"/>
-      <c r="D52" s="616"/>
-      <c r="E52" s="616"/>
-      <c r="F52" s="616"/>
-      <c r="G52" s="616"/>
-      <c r="H52" s="616"/>
-      <c r="I52" s="616"/>
-      <c r="J52" s="616"/>
-      <c r="K52" s="616"/>
-      <c r="L52" s="616"/>
-      <c r="M52" s="616"/>
-      <c r="N52" s="616"/>
-      <c r="O52" s="616"/>
-      <c r="P52" s="616"/>
-      <c r="Q52" s="616"/>
-      <c r="R52" s="616"/>
-      <c r="S52" s="616"/>
-      <c r="T52" s="616"/>
-      <c r="U52" s="616"/>
-      <c r="V52" s="616"/>
-      <c r="W52" s="616"/>
-      <c r="X52" s="617"/>
+      <c r="B52" s="587"/>
+      <c r="C52" s="587"/>
+      <c r="D52" s="587"/>
+      <c r="E52" s="587"/>
+      <c r="F52" s="587"/>
+      <c r="G52" s="587"/>
+      <c r="H52" s="587"/>
+      <c r="I52" s="587"/>
+      <c r="J52" s="587"/>
+      <c r="K52" s="587"/>
+      <c r="L52" s="587"/>
+      <c r="M52" s="587"/>
+      <c r="N52" s="587"/>
+      <c r="O52" s="587"/>
+      <c r="P52" s="587"/>
+      <c r="Q52" s="587"/>
+      <c r="R52" s="587"/>
+      <c r="S52" s="587"/>
+      <c r="T52" s="587"/>
+      <c r="U52" s="587"/>
+      <c r="V52" s="587"/>
+      <c r="W52" s="587"/>
+      <c r="X52" s="588"/>
       <c r="Y52" s="454"/>
       <c r="Z52" s="454"/>
       <c r="AA52" s="454"/>
@@ -38876,73 +38900,73 @@
       <c r="AN52" s="454"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="618" t="s">
+      <c r="B53" s="619" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="610" t="s">
+      <c r="C53" s="620" t="s">
         <v>251</v>
       </c>
-      <c r="D53" s="613" t="s">
+      <c r="D53" s="621" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="612" t="s">
+      <c r="E53" s="591" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="610" t="s">
+      <c r="F53" s="620" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="610" t="s">
+      <c r="G53" s="620" t="s">
         <v>255</v>
       </c>
-      <c r="H53" s="610" t="s">
+      <c r="H53" s="620" t="s">
         <v>256</v>
       </c>
-      <c r="I53" s="610" t="s">
+      <c r="I53" s="620" t="s">
         <v>257</v>
       </c>
-      <c r="J53" s="610" t="s">
+      <c r="J53" s="620" t="s">
         <v>258</v>
       </c>
-      <c r="K53" s="610" t="s">
+      <c r="K53" s="620" t="s">
         <v>259</v>
       </c>
-      <c r="L53" s="610" t="s">
+      <c r="L53" s="620" t="s">
         <v>260</v>
       </c>
-      <c r="M53" s="612" t="s">
+      <c r="M53" s="591" t="s">
         <v>261</v>
       </c>
-      <c r="N53" s="612" t="s">
+      <c r="N53" s="591" t="s">
         <v>262</v>
       </c>
-      <c r="O53" s="612" t="s">
+      <c r="O53" s="591" t="s">
         <v>263</v>
       </c>
-      <c r="P53" s="612" t="s">
+      <c r="P53" s="591" t="s">
         <v>264</v>
       </c>
-      <c r="Q53" s="612" t="s">
+      <c r="Q53" s="591" t="s">
         <v>265</v>
       </c>
-      <c r="R53" s="612" t="s">
+      <c r="R53" s="591" t="s">
         <v>266</v>
       </c>
-      <c r="S53" s="610" t="s">
+      <c r="S53" s="620" t="s">
         <v>267</v>
       </c>
-      <c r="T53" s="610" t="s">
+      <c r="T53" s="620" t="s">
         <v>268</v>
       </c>
-      <c r="U53" s="612" t="s">
+      <c r="U53" s="591" t="s">
         <v>269</v>
       </c>
-      <c r="V53" s="612" t="s">
+      <c r="V53" s="591" t="s">
         <v>270</v>
       </c>
-      <c r="W53" s="610" t="s">
+      <c r="W53" s="620" t="s">
         <v>271</v>
       </c>
-      <c r="X53" s="612" t="s">
+      <c r="X53" s="591" t="s">
         <v>272</v>
       </c>
       <c r="Y53" s="52"/>
@@ -38963,29 +38987,29 @@
       <c r="AN53" s="497"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="619"/>
-      <c r="C54" s="611"/>
-      <c r="D54" s="614"/>
-      <c r="E54" s="611"/>
-      <c r="F54" s="611"/>
-      <c r="G54" s="611"/>
-      <c r="H54" s="611"/>
-      <c r="I54" s="611"/>
-      <c r="J54" s="611"/>
-      <c r="K54" s="611"/>
-      <c r="L54" s="611"/>
-      <c r="M54" s="611"/>
-      <c r="N54" s="611"/>
-      <c r="O54" s="611"/>
-      <c r="P54" s="611"/>
-      <c r="Q54" s="611"/>
-      <c r="R54" s="611"/>
-      <c r="S54" s="611"/>
-      <c r="T54" s="611"/>
-      <c r="U54" s="611"/>
-      <c r="V54" s="611"/>
-      <c r="W54" s="611"/>
-      <c r="X54" s="611"/>
+      <c r="B54" s="590"/>
+      <c r="C54" s="592"/>
+      <c r="D54" s="594"/>
+      <c r="E54" s="592"/>
+      <c r="F54" s="592"/>
+      <c r="G54" s="592"/>
+      <c r="H54" s="592"/>
+      <c r="I54" s="592"/>
+      <c r="J54" s="592"/>
+      <c r="K54" s="592"/>
+      <c r="L54" s="592"/>
+      <c r="M54" s="592"/>
+      <c r="N54" s="592"/>
+      <c r="O54" s="592"/>
+      <c r="P54" s="592"/>
+      <c r="Q54" s="592"/>
+      <c r="R54" s="592"/>
+      <c r="S54" s="592"/>
+      <c r="T54" s="592"/>
+      <c r="U54" s="592"/>
+      <c r="V54" s="592"/>
+      <c r="W54" s="592"/>
+      <c r="X54" s="592"/>
       <c r="AA54" s="52"/>
       <c r="AB54" s="52"/>
       <c r="AC54" s="499"/>
@@ -39074,9 +39098,9 @@
       <c r="X55" s="396">
         <v>160</v>
       </c>
-      <c r="Z55" s="588"/>
-      <c r="AA55" s="588"/>
-      <c r="AB55" s="588"/>
+      <c r="Z55" s="630"/>
+      <c r="AA55" s="630"/>
+      <c r="AB55" s="630"/>
       <c r="AC55" s="500"/>
       <c r="AD55" s="52"/>
       <c r="AE55" s="52"/>
@@ -39163,9 +39187,9 @@
       <c r="X56" s="410">
         <v>70000</v>
       </c>
-      <c r="Z56" s="588"/>
-      <c r="AA56" s="588"/>
-      <c r="AB56" s="588"/>
+      <c r="Z56" s="630"/>
+      <c r="AA56" s="630"/>
+      <c r="AB56" s="630"/>
       <c r="AC56" s="499"/>
       <c r="AD56" s="52"/>
       <c r="AE56" s="52"/>
@@ -39252,9 +39276,9 @@
       <c r="X57" s="397">
         <v>1</v>
       </c>
-      <c r="Z57" s="588"/>
-      <c r="AA57" s="588"/>
-      <c r="AB57" s="588"/>
+      <c r="Z57" s="630"/>
+      <c r="AA57" s="630"/>
+      <c r="AB57" s="630"/>
       <c r="AC57" s="497"/>
       <c r="AD57" s="497"/>
       <c r="AE57" s="497"/>
@@ -39276,45 +39300,45 @@
         <f>SUM(B56:AF56)</f>
         <v>1890000</v>
       </c>
-      <c r="C58" s="586"/>
-      <c r="D58" s="587"/>
-      <c r="E58" s="587"/>
-      <c r="F58" s="587"/>
-      <c r="G58" s="587"/>
-      <c r="H58" s="587"/>
-      <c r="I58" s="587"/>
-      <c r="J58" s="587"/>
-      <c r="K58" s="587"/>
-      <c r="L58" s="587"/>
-      <c r="M58" s="587"/>
-      <c r="N58" s="587"/>
-      <c r="O58" s="587"/>
-      <c r="P58" s="587"/>
-      <c r="Q58" s="587"/>
-      <c r="R58" s="587"/>
-      <c r="S58" s="587"/>
-      <c r="T58" s="587"/>
-      <c r="U58" s="587"/>
-      <c r="V58" s="587"/>
-      <c r="W58" s="587"/>
-      <c r="X58" s="587"/>
-      <c r="Y58" s="587"/>
-      <c r="Z58" s="587"/>
-      <c r="AA58" s="587"/>
-      <c r="AB58" s="587"/>
-      <c r="AC58" s="587"/>
-      <c r="AD58" s="587"/>
-      <c r="AE58" s="587"/>
-      <c r="AF58" s="587"/>
-      <c r="AG58" s="587"/>
-      <c r="AH58" s="587"/>
-      <c r="AI58" s="587"/>
-      <c r="AJ58" s="587"/>
-      <c r="AK58" s="587"/>
-      <c r="AL58" s="587"/>
-      <c r="AM58" s="587"/>
-      <c r="AN58" s="587"/>
-      <c r="AO58" s="587"/>
+      <c r="C58" s="629"/>
+      <c r="D58" s="595"/>
+      <c r="E58" s="595"/>
+      <c r="F58" s="595"/>
+      <c r="G58" s="595"/>
+      <c r="H58" s="595"/>
+      <c r="I58" s="595"/>
+      <c r="J58" s="595"/>
+      <c r="K58" s="595"/>
+      <c r="L58" s="595"/>
+      <c r="M58" s="595"/>
+      <c r="N58" s="595"/>
+      <c r="O58" s="595"/>
+      <c r="P58" s="595"/>
+      <c r="Q58" s="595"/>
+      <c r="R58" s="595"/>
+      <c r="S58" s="595"/>
+      <c r="T58" s="595"/>
+      <c r="U58" s="595"/>
+      <c r="V58" s="595"/>
+      <c r="W58" s="595"/>
+      <c r="X58" s="595"/>
+      <c r="Y58" s="595"/>
+      <c r="Z58" s="595"/>
+      <c r="AA58" s="595"/>
+      <c r="AB58" s="595"/>
+      <c r="AC58" s="595"/>
+      <c r="AD58" s="595"/>
+      <c r="AE58" s="595"/>
+      <c r="AF58" s="595"/>
+      <c r="AG58" s="595"/>
+      <c r="AH58" s="595"/>
+      <c r="AI58" s="595"/>
+      <c r="AJ58" s="595"/>
+      <c r="AK58" s="595"/>
+      <c r="AL58" s="595"/>
+      <c r="AM58" s="595"/>
+      <c r="AN58" s="595"/>
+      <c r="AO58" s="595"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="404" t="s">
@@ -39324,45 +39348,45 @@
         <f>B58*12</f>
         <v>22680000</v>
       </c>
-      <c r="C59" s="586"/>
-      <c r="D59" s="587"/>
-      <c r="E59" s="587"/>
-      <c r="F59" s="587"/>
-      <c r="G59" s="587"/>
-      <c r="H59" s="587"/>
-      <c r="I59" s="587"/>
-      <c r="J59" s="587"/>
-      <c r="K59" s="587"/>
-      <c r="L59" s="587"/>
-      <c r="M59" s="587"/>
-      <c r="N59" s="587"/>
-      <c r="O59" s="587"/>
-      <c r="P59" s="587"/>
-      <c r="Q59" s="587"/>
-      <c r="R59" s="587"/>
-      <c r="S59" s="587"/>
-      <c r="T59" s="587"/>
-      <c r="U59" s="587"/>
-      <c r="V59" s="587"/>
-      <c r="W59" s="587"/>
-      <c r="X59" s="587"/>
-      <c r="Y59" s="587"/>
-      <c r="Z59" s="587"/>
-      <c r="AA59" s="587"/>
-      <c r="AB59" s="587"/>
-      <c r="AC59" s="587"/>
-      <c r="AD59" s="587"/>
-      <c r="AE59" s="587"/>
-      <c r="AF59" s="587"/>
-      <c r="AG59" s="587"/>
-      <c r="AH59" s="587"/>
-      <c r="AI59" s="587"/>
-      <c r="AJ59" s="587"/>
-      <c r="AK59" s="587"/>
-      <c r="AL59" s="587"/>
-      <c r="AM59" s="587"/>
-      <c r="AN59" s="587"/>
-      <c r="AO59" s="587"/>
+      <c r="C59" s="629"/>
+      <c r="D59" s="595"/>
+      <c r="E59" s="595"/>
+      <c r="F59" s="595"/>
+      <c r="G59" s="595"/>
+      <c r="H59" s="595"/>
+      <c r="I59" s="595"/>
+      <c r="J59" s="595"/>
+      <c r="K59" s="595"/>
+      <c r="L59" s="595"/>
+      <c r="M59" s="595"/>
+      <c r="N59" s="595"/>
+      <c r="O59" s="595"/>
+      <c r="P59" s="595"/>
+      <c r="Q59" s="595"/>
+      <c r="R59" s="595"/>
+      <c r="S59" s="595"/>
+      <c r="T59" s="595"/>
+      <c r="U59" s="595"/>
+      <c r="V59" s="595"/>
+      <c r="W59" s="595"/>
+      <c r="X59" s="595"/>
+      <c r="Y59" s="595"/>
+      <c r="Z59" s="595"/>
+      <c r="AA59" s="595"/>
+      <c r="AB59" s="595"/>
+      <c r="AC59" s="595"/>
+      <c r="AD59" s="595"/>
+      <c r="AE59" s="595"/>
+      <c r="AF59" s="595"/>
+      <c r="AG59" s="595"/>
+      <c r="AH59" s="595"/>
+      <c r="AI59" s="595"/>
+      <c r="AJ59" s="595"/>
+      <c r="AK59" s="595"/>
+      <c r="AL59" s="595"/>
+      <c r="AM59" s="595"/>
+      <c r="AN59" s="595"/>
+      <c r="AO59" s="595"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
@@ -39480,48 +39504,48 @@
       <c r="AN63" s="41"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="601" t="s">
+      <c r="A64" s="610" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="602"/>
-      <c r="C64" s="602"/>
-      <c r="D64" s="602"/>
-      <c r="E64" s="602"/>
-      <c r="F64" s="602"/>
-      <c r="G64" s="602"/>
-      <c r="H64" s="603"/>
-      <c r="I64" s="603"/>
-      <c r="J64" s="603"/>
-      <c r="K64" s="603"/>
-      <c r="L64" s="602"/>
-      <c r="M64" s="602"/>
-      <c r="N64" s="602"/>
-      <c r="O64" s="602"/>
-      <c r="P64" s="602"/>
-      <c r="Q64" s="602"/>
-      <c r="R64" s="602"/>
-      <c r="S64" s="602"/>
-      <c r="T64" s="602"/>
-      <c r="U64" s="602"/>
-      <c r="V64" s="602"/>
-      <c r="W64" s="602"/>
-      <c r="X64" s="602"/>
-      <c r="Y64" s="602"/>
-      <c r="Z64" s="602"/>
-      <c r="AA64" s="602"/>
-      <c r="AB64" s="602"/>
-      <c r="AC64" s="602"/>
-      <c r="AD64" s="602"/>
-      <c r="AE64" s="602"/>
-      <c r="AF64" s="602"/>
-      <c r="AG64" s="602"/>
-      <c r="AH64" s="602"/>
-      <c r="AI64" s="602"/>
-      <c r="AJ64" s="602"/>
-      <c r="AK64" s="602"/>
-      <c r="AL64" s="602"/>
-      <c r="AM64" s="602"/>
-      <c r="AN64" s="604"/>
+      <c r="B64" s="611"/>
+      <c r="C64" s="611"/>
+      <c r="D64" s="611"/>
+      <c r="E64" s="611"/>
+      <c r="F64" s="611"/>
+      <c r="G64" s="611"/>
+      <c r="H64" s="612"/>
+      <c r="I64" s="612"/>
+      <c r="J64" s="612"/>
+      <c r="K64" s="612"/>
+      <c r="L64" s="611"/>
+      <c r="M64" s="611"/>
+      <c r="N64" s="611"/>
+      <c r="O64" s="611"/>
+      <c r="P64" s="611"/>
+      <c r="Q64" s="611"/>
+      <c r="R64" s="611"/>
+      <c r="S64" s="611"/>
+      <c r="T64" s="611"/>
+      <c r="U64" s="611"/>
+      <c r="V64" s="611"/>
+      <c r="W64" s="611"/>
+      <c r="X64" s="611"/>
+      <c r="Y64" s="611"/>
+      <c r="Z64" s="611"/>
+      <c r="AA64" s="611"/>
+      <c r="AB64" s="611"/>
+      <c r="AC64" s="611"/>
+      <c r="AD64" s="611"/>
+      <c r="AE64" s="611"/>
+      <c r="AF64" s="611"/>
+      <c r="AG64" s="611"/>
+      <c r="AH64" s="611"/>
+      <c r="AI64" s="611"/>
+      <c r="AJ64" s="611"/>
+      <c r="AK64" s="611"/>
+      <c r="AL64" s="611"/>
+      <c r="AM64" s="611"/>
+      <c r="AN64" s="613"/>
       <c r="AO64" s="29"/>
       <c r="AP64" s="29"/>
       <c r="AQ64" s="29"/>
@@ -39545,76 +39569,76 @@
       <c r="BI64" s="29"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="605" t="s">
+      <c r="A65" s="614" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="605" t="s">
+      <c r="B65" s="614" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="608" t="s">
+      <c r="C65" s="617" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="609"/>
-      <c r="E65" s="591" t="s">
+      <c r="D65" s="618"/>
+      <c r="E65" s="600" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="592"/>
-      <c r="G65" s="593"/>
-      <c r="H65" s="591" t="s">
+      <c r="F65" s="601"/>
+      <c r="G65" s="602"/>
+      <c r="H65" s="600" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="592"/>
-      <c r="J65" s="593"/>
-      <c r="K65" s="591" t="s">
+      <c r="I65" s="601"/>
+      <c r="J65" s="602"/>
+      <c r="K65" s="600" t="s">
         <v>41</v>
       </c>
-      <c r="L65" s="592"/>
-      <c r="M65" s="593"/>
-      <c r="N65" s="591" t="s">
+      <c r="L65" s="601"/>
+      <c r="M65" s="602"/>
+      <c r="N65" s="600" t="s">
         <v>42</v>
       </c>
-      <c r="O65" s="592"/>
-      <c r="P65" s="593"/>
-      <c r="Q65" s="591" t="s">
+      <c r="O65" s="601"/>
+      <c r="P65" s="602"/>
+      <c r="Q65" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="R65" s="592"/>
-      <c r="S65" s="593"/>
-      <c r="T65" s="591" t="s">
+      <c r="R65" s="601"/>
+      <c r="S65" s="602"/>
+      <c r="T65" s="600" t="s">
         <v>44</v>
       </c>
-      <c r="U65" s="592"/>
-      <c r="V65" s="593"/>
-      <c r="W65" s="591" t="s">
+      <c r="U65" s="601"/>
+      <c r="V65" s="602"/>
+      <c r="W65" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="X65" s="592"/>
-      <c r="Y65" s="593"/>
-      <c r="Z65" s="591" t="s">
+      <c r="X65" s="601"/>
+      <c r="Y65" s="602"/>
+      <c r="Z65" s="600" t="s">
         <v>46</v>
       </c>
-      <c r="AA65" s="592"/>
-      <c r="AB65" s="593"/>
-      <c r="AC65" s="591" t="s">
+      <c r="AA65" s="601"/>
+      <c r="AB65" s="602"/>
+      <c r="AC65" s="600" t="s">
         <v>47</v>
       </c>
-      <c r="AD65" s="592"/>
-      <c r="AE65" s="593"/>
-      <c r="AF65" s="591" t="s">
+      <c r="AD65" s="601"/>
+      <c r="AE65" s="602"/>
+      <c r="AF65" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="AG65" s="592"/>
-      <c r="AH65" s="593"/>
-      <c r="AI65" s="591" t="s">
+      <c r="AG65" s="601"/>
+      <c r="AH65" s="602"/>
+      <c r="AI65" s="600" t="s">
         <v>49</v>
       </c>
-      <c r="AJ65" s="592"/>
-      <c r="AK65" s="593"/>
-      <c r="AL65" s="591" t="s">
+      <c r="AJ65" s="601"/>
+      <c r="AK65" s="602"/>
+      <c r="AL65" s="600" t="s">
         <v>50</v>
       </c>
-      <c r="AM65" s="592"/>
-      <c r="AN65" s="593"/>
+      <c r="AM65" s="601"/>
+      <c r="AN65" s="602"/>
       <c r="AO65" s="29"/>
       <c r="AP65" s="29"/>
       <c r="AQ65" s="29"/>
@@ -39638,74 +39662,74 @@
       <c r="BI65" s="29"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="606"/>
-      <c r="B66" s="606"/>
-      <c r="C66" s="594" t="s">
+      <c r="A66" s="615"/>
+      <c r="B66" s="615"/>
+      <c r="C66" s="603" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="596" t="s">
+      <c r="D66" s="605" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="598">
+      <c r="E66" s="607">
         <v>0.02</v>
       </c>
-      <c r="F66" s="599"/>
-      <c r="G66" s="600"/>
-      <c r="H66" s="598">
+      <c r="F66" s="608"/>
+      <c r="G66" s="609"/>
+      <c r="H66" s="607">
         <v>0.04</v>
       </c>
-      <c r="I66" s="599"/>
-      <c r="J66" s="600"/>
-      <c r="K66" s="598">
+      <c r="I66" s="608"/>
+      <c r="J66" s="609"/>
+      <c r="K66" s="607">
         <v>0.04</v>
       </c>
-      <c r="L66" s="599"/>
-      <c r="M66" s="600"/>
-      <c r="N66" s="598">
+      <c r="L66" s="608"/>
+      <c r="M66" s="609"/>
+      <c r="N66" s="607">
         <v>0.05</v>
       </c>
-      <c r="O66" s="599"/>
-      <c r="P66" s="600"/>
-      <c r="Q66" s="598">
+      <c r="O66" s="608"/>
+      <c r="P66" s="609"/>
+      <c r="Q66" s="607">
         <v>0.06</v>
       </c>
-      <c r="R66" s="599"/>
-      <c r="S66" s="600"/>
-      <c r="T66" s="598">
+      <c r="R66" s="608"/>
+      <c r="S66" s="609"/>
+      <c r="T66" s="607">
         <v>0.08</v>
       </c>
-      <c r="U66" s="599"/>
-      <c r="V66" s="600"/>
-      <c r="W66" s="598">
+      <c r="U66" s="608"/>
+      <c r="V66" s="609"/>
+      <c r="W66" s="607">
         <v>0.1</v>
       </c>
-      <c r="X66" s="599"/>
-      <c r="Y66" s="600"/>
-      <c r="Z66" s="598">
+      <c r="X66" s="608"/>
+      <c r="Y66" s="609"/>
+      <c r="Z66" s="607">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="599"/>
-      <c r="AB66" s="600"/>
-      <c r="AC66" s="598">
+      <c r="AA66" s="608"/>
+      <c r="AB66" s="609"/>
+      <c r="AC66" s="607">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="599"/>
-      <c r="AE66" s="600"/>
-      <c r="AF66" s="598">
+      <c r="AD66" s="608"/>
+      <c r="AE66" s="609"/>
+      <c r="AF66" s="607">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="599"/>
-      <c r="AH66" s="600"/>
-      <c r="AI66" s="598">
+      <c r="AG66" s="608"/>
+      <c r="AH66" s="609"/>
+      <c r="AI66" s="607">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="599"/>
-      <c r="AK66" s="600"/>
-      <c r="AL66" s="598">
+      <c r="AJ66" s="608"/>
+      <c r="AK66" s="609"/>
+      <c r="AL66" s="607">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="599"/>
-      <c r="AN66" s="600"/>
+      <c r="AM66" s="608"/>
+      <c r="AN66" s="609"/>
       <c r="AO66" s="29"/>
       <c r="AP66" s="29"/>
       <c r="AQ66" s="29"/>
@@ -39729,10 +39753,10 @@
       <c r="BI66" s="29"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="607"/>
-      <c r="B67" s="607"/>
-      <c r="C67" s="595"/>
-      <c r="D67" s="597"/>
+      <c r="A67" s="616"/>
+      <c r="B67" s="616"/>
+      <c r="C67" s="604"/>
+      <c r="D67" s="628"/>
       <c r="E67" s="419"/>
       <c r="F67" s="378" t="s">
         <v>58</v>
@@ -40321,10 +40345,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="589" t="s">
+      <c r="A71" s="598" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="590"/>
+      <c r="B71" s="599"/>
       <c r="C71" s="382">
         <f>SUM(C68:C70)</f>
         <v>145752</v>
@@ -40409,32 +40433,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="615" t="s">
+      <c r="A101" s="586" t="s">
         <v>278</v>
       </c>
-      <c r="B101" s="616"/>
-      <c r="C101" s="616"/>
-      <c r="D101" s="616"/>
-      <c r="E101" s="616"/>
-      <c r="F101" s="616"/>
-      <c r="G101" s="616"/>
-      <c r="H101" s="616"/>
-      <c r="I101" s="616"/>
-      <c r="J101" s="616"/>
-      <c r="K101" s="616"/>
-      <c r="L101" s="616"/>
-      <c r="M101" s="616"/>
-      <c r="N101" s="616"/>
-      <c r="O101" s="616"/>
-      <c r="P101" s="616"/>
-      <c r="Q101" s="616"/>
-      <c r="R101" s="616"/>
-      <c r="S101" s="616"/>
-      <c r="T101" s="616"/>
-      <c r="U101" s="616"/>
-      <c r="V101" s="616"/>
-      <c r="W101" s="616"/>
-      <c r="X101" s="617"/>
+      <c r="B101" s="587"/>
+      <c r="C101" s="587"/>
+      <c r="D101" s="587"/>
+      <c r="E101" s="587"/>
+      <c r="F101" s="587"/>
+      <c r="G101" s="587"/>
+      <c r="H101" s="587"/>
+      <c r="I101" s="587"/>
+      <c r="J101" s="587"/>
+      <c r="K101" s="587"/>
+      <c r="L101" s="587"/>
+      <c r="M101" s="587"/>
+      <c r="N101" s="587"/>
+      <c r="O101" s="587"/>
+      <c r="P101" s="587"/>
+      <c r="Q101" s="587"/>
+      <c r="R101" s="587"/>
+      <c r="S101" s="587"/>
+      <c r="T101" s="587"/>
+      <c r="U101" s="587"/>
+      <c r="V101" s="587"/>
+      <c r="W101" s="587"/>
+      <c r="X101" s="588"/>
       <c r="Y101" s="454"/>
       <c r="Z101" s="454"/>
       <c r="AA101" s="454"/>
@@ -40453,73 +40477,73 @@
       <c r="AN101" s="400"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="618" t="s">
+      <c r="B102" s="619" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="610" t="s">
+      <c r="C102" s="620" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="613" t="s">
+      <c r="D102" s="621" t="s">
         <v>252</v>
       </c>
-      <c r="E102" s="612" t="s">
+      <c r="E102" s="591" t="s">
         <v>253</v>
       </c>
-      <c r="F102" s="610" t="s">
+      <c r="F102" s="620" t="s">
         <v>254</v>
       </c>
-      <c r="G102" s="610" t="s">
+      <c r="G102" s="620" t="s">
         <v>255</v>
       </c>
-      <c r="H102" s="610" t="s">
+      <c r="H102" s="620" t="s">
         <v>256</v>
       </c>
-      <c r="I102" s="610" t="s">
+      <c r="I102" s="620" t="s">
         <v>257</v>
       </c>
-      <c r="J102" s="610" t="s">
+      <c r="J102" s="620" t="s">
         <v>258</v>
       </c>
-      <c r="K102" s="610" t="s">
+      <c r="K102" s="620" t="s">
         <v>259</v>
       </c>
-      <c r="L102" s="610" t="s">
+      <c r="L102" s="620" t="s">
         <v>260</v>
       </c>
-      <c r="M102" s="612" t="s">
+      <c r="M102" s="591" t="s">
         <v>261</v>
       </c>
-      <c r="N102" s="612" t="s">
+      <c r="N102" s="591" t="s">
         <v>262</v>
       </c>
-      <c r="O102" s="612" t="s">
+      <c r="O102" s="591" t="s">
         <v>263</v>
       </c>
-      <c r="P102" s="612" t="s">
+      <c r="P102" s="591" t="s">
         <v>264</v>
       </c>
-      <c r="Q102" s="612" t="s">
+      <c r="Q102" s="591" t="s">
         <v>265</v>
       </c>
-      <c r="R102" s="612" t="s">
+      <c r="R102" s="591" t="s">
         <v>266</v>
       </c>
-      <c r="S102" s="610" t="s">
+      <c r="S102" s="620" t="s">
         <v>267</v>
       </c>
-      <c r="T102" s="610" t="s">
+      <c r="T102" s="620" t="s">
         <v>268</v>
       </c>
-      <c r="U102" s="612" t="s">
+      <c r="U102" s="591" t="s">
         <v>269</v>
       </c>
-      <c r="V102" s="612" t="s">
+      <c r="V102" s="591" t="s">
         <v>270</v>
       </c>
-      <c r="W102" s="610" t="s">
+      <c r="W102" s="620" t="s">
         <v>271</v>
       </c>
-      <c r="X102" s="612" t="s">
+      <c r="X102" s="591" t="s">
         <v>272</v>
       </c>
       <c r="Y102" s="52"/>
@@ -40540,29 +40564,29 @@
       <c r="AN102" s="385"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="619"/>
-      <c r="C103" s="611"/>
-      <c r="D103" s="614"/>
-      <c r="E103" s="611"/>
-      <c r="F103" s="611"/>
-      <c r="G103" s="611"/>
-      <c r="H103" s="611"/>
-      <c r="I103" s="611"/>
-      <c r="J103" s="611"/>
-      <c r="K103" s="611"/>
-      <c r="L103" s="611"/>
-      <c r="M103" s="611"/>
-      <c r="N103" s="611"/>
-      <c r="O103" s="611"/>
-      <c r="P103" s="611"/>
-      <c r="Q103" s="611"/>
-      <c r="R103" s="611"/>
-      <c r="S103" s="611"/>
-      <c r="T103" s="611"/>
-      <c r="U103" s="611"/>
-      <c r="V103" s="611"/>
-      <c r="W103" s="611"/>
-      <c r="X103" s="611"/>
+      <c r="B103" s="590"/>
+      <c r="C103" s="592"/>
+      <c r="D103" s="594"/>
+      <c r="E103" s="592"/>
+      <c r="F103" s="592"/>
+      <c r="G103" s="592"/>
+      <c r="H103" s="592"/>
+      <c r="I103" s="592"/>
+      <c r="J103" s="592"/>
+      <c r="K103" s="592"/>
+      <c r="L103" s="592"/>
+      <c r="M103" s="592"/>
+      <c r="N103" s="592"/>
+      <c r="O103" s="592"/>
+      <c r="P103" s="592"/>
+      <c r="Q103" s="592"/>
+      <c r="R103" s="592"/>
+      <c r="S103" s="592"/>
+      <c r="T103" s="592"/>
+      <c r="U103" s="592"/>
+      <c r="V103" s="592"/>
+      <c r="W103" s="592"/>
+      <c r="X103" s="592"/>
       <c r="AA103" s="52"/>
       <c r="AB103" s="52"/>
       <c r="AC103" s="395"/>
@@ -41045,48 +41069,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="601" t="s">
+      <c r="A112" s="610" t="s">
         <v>277</v>
       </c>
-      <c r="B112" s="602"/>
-      <c r="C112" s="602"/>
-      <c r="D112" s="602"/>
-      <c r="E112" s="602"/>
-      <c r="F112" s="602"/>
-      <c r="G112" s="602"/>
-      <c r="H112" s="603"/>
-      <c r="I112" s="603"/>
-      <c r="J112" s="603"/>
-      <c r="K112" s="603"/>
-      <c r="L112" s="602"/>
-      <c r="M112" s="602"/>
-      <c r="N112" s="602"/>
-      <c r="O112" s="602"/>
-      <c r="P112" s="602"/>
-      <c r="Q112" s="602"/>
-      <c r="R112" s="602"/>
-      <c r="S112" s="602"/>
-      <c r="T112" s="602"/>
-      <c r="U112" s="602"/>
-      <c r="V112" s="602"/>
-      <c r="W112" s="602"/>
-      <c r="X112" s="602"/>
-      <c r="Y112" s="602"/>
-      <c r="Z112" s="602"/>
-      <c r="AA112" s="602"/>
-      <c r="AB112" s="602"/>
-      <c r="AC112" s="602"/>
-      <c r="AD112" s="602"/>
-      <c r="AE112" s="602"/>
-      <c r="AF112" s="602"/>
-      <c r="AG112" s="602"/>
-      <c r="AH112" s="602"/>
-      <c r="AI112" s="602"/>
-      <c r="AJ112" s="602"/>
-      <c r="AK112" s="602"/>
-      <c r="AL112" s="602"/>
-      <c r="AM112" s="602"/>
-      <c r="AN112" s="604"/>
+      <c r="B112" s="611"/>
+      <c r="C112" s="611"/>
+      <c r="D112" s="611"/>
+      <c r="E112" s="611"/>
+      <c r="F112" s="611"/>
+      <c r="G112" s="611"/>
+      <c r="H112" s="612"/>
+      <c r="I112" s="612"/>
+      <c r="J112" s="612"/>
+      <c r="K112" s="612"/>
+      <c r="L112" s="611"/>
+      <c r="M112" s="611"/>
+      <c r="N112" s="611"/>
+      <c r="O112" s="611"/>
+      <c r="P112" s="611"/>
+      <c r="Q112" s="611"/>
+      <c r="R112" s="611"/>
+      <c r="S112" s="611"/>
+      <c r="T112" s="611"/>
+      <c r="U112" s="611"/>
+      <c r="V112" s="611"/>
+      <c r="W112" s="611"/>
+      <c r="X112" s="611"/>
+      <c r="Y112" s="611"/>
+      <c r="Z112" s="611"/>
+      <c r="AA112" s="611"/>
+      <c r="AB112" s="611"/>
+      <c r="AC112" s="611"/>
+      <c r="AD112" s="611"/>
+      <c r="AE112" s="611"/>
+      <c r="AF112" s="611"/>
+      <c r="AG112" s="611"/>
+      <c r="AH112" s="611"/>
+      <c r="AI112" s="611"/>
+      <c r="AJ112" s="611"/>
+      <c r="AK112" s="611"/>
+      <c r="AL112" s="611"/>
+      <c r="AM112" s="611"/>
+      <c r="AN112" s="613"/>
       <c r="AO112" s="29"/>
       <c r="AP112" s="29"/>
       <c r="AQ112" s="29"/>
@@ -41110,76 +41134,76 @@
       <c r="BI112" s="29"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="605" t="s">
+      <c r="A113" s="614" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="605" t="s">
+      <c r="B113" s="614" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="608" t="s">
+      <c r="C113" s="617" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="609"/>
-      <c r="E113" s="591" t="s">
+      <c r="D113" s="618"/>
+      <c r="E113" s="600" t="s">
         <v>39</v>
       </c>
-      <c r="F113" s="592"/>
-      <c r="G113" s="593"/>
-      <c r="H113" s="591" t="s">
+      <c r="F113" s="601"/>
+      <c r="G113" s="602"/>
+      <c r="H113" s="600" t="s">
         <v>40</v>
       </c>
-      <c r="I113" s="592"/>
-      <c r="J113" s="593"/>
-      <c r="K113" s="591" t="s">
+      <c r="I113" s="601"/>
+      <c r="J113" s="602"/>
+      <c r="K113" s="600" t="s">
         <v>41</v>
       </c>
-      <c r="L113" s="592"/>
-      <c r="M113" s="593"/>
-      <c r="N113" s="591" t="s">
+      <c r="L113" s="601"/>
+      <c r="M113" s="602"/>
+      <c r="N113" s="600" t="s">
         <v>42</v>
       </c>
-      <c r="O113" s="592"/>
-      <c r="P113" s="593"/>
-      <c r="Q113" s="591" t="s">
+      <c r="O113" s="601"/>
+      <c r="P113" s="602"/>
+      <c r="Q113" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="R113" s="592"/>
-      <c r="S113" s="593"/>
-      <c r="T113" s="591" t="s">
+      <c r="R113" s="601"/>
+      <c r="S113" s="602"/>
+      <c r="T113" s="600" t="s">
         <v>44</v>
       </c>
-      <c r="U113" s="592"/>
-      <c r="V113" s="593"/>
-      <c r="W113" s="591" t="s">
+      <c r="U113" s="601"/>
+      <c r="V113" s="602"/>
+      <c r="W113" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="X113" s="592"/>
-      <c r="Y113" s="593"/>
-      <c r="Z113" s="591" t="s">
+      <c r="X113" s="601"/>
+      <c r="Y113" s="602"/>
+      <c r="Z113" s="600" t="s">
         <v>46</v>
       </c>
-      <c r="AA113" s="592"/>
-      <c r="AB113" s="593"/>
-      <c r="AC113" s="591" t="s">
+      <c r="AA113" s="601"/>
+      <c r="AB113" s="602"/>
+      <c r="AC113" s="600" t="s">
         <v>47</v>
       </c>
-      <c r="AD113" s="592"/>
-      <c r="AE113" s="593"/>
-      <c r="AF113" s="591" t="s">
+      <c r="AD113" s="601"/>
+      <c r="AE113" s="602"/>
+      <c r="AF113" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="AG113" s="592"/>
-      <c r="AH113" s="593"/>
-      <c r="AI113" s="591" t="s">
+      <c r="AG113" s="601"/>
+      <c r="AH113" s="602"/>
+      <c r="AI113" s="600" t="s">
         <v>49</v>
       </c>
-      <c r="AJ113" s="592"/>
-      <c r="AK113" s="593"/>
-      <c r="AL113" s="591" t="s">
+      <c r="AJ113" s="601"/>
+      <c r="AK113" s="602"/>
+      <c r="AL113" s="600" t="s">
         <v>50</v>
       </c>
-      <c r="AM113" s="592"/>
-      <c r="AN113" s="593"/>
+      <c r="AM113" s="601"/>
+      <c r="AN113" s="602"/>
       <c r="AO113" s="29"/>
       <c r="AP113" s="29"/>
       <c r="AQ113" s="29"/>
@@ -41203,74 +41227,74 @@
       <c r="BI113" s="29"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="606"/>
-      <c r="B114" s="606"/>
-      <c r="C114" s="594" t="s">
+      <c r="A114" s="615"/>
+      <c r="B114" s="615"/>
+      <c r="C114" s="603" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="596" t="s">
+      <c r="D114" s="605" t="s">
         <v>38</v>
       </c>
-      <c r="E114" s="598">
+      <c r="E114" s="607">
         <v>0.02</v>
       </c>
-      <c r="F114" s="599"/>
-      <c r="G114" s="600"/>
-      <c r="H114" s="598">
+      <c r="F114" s="608"/>
+      <c r="G114" s="609"/>
+      <c r="H114" s="607">
         <v>0.04</v>
       </c>
-      <c r="I114" s="599"/>
-      <c r="J114" s="600"/>
-      <c r="K114" s="598">
+      <c r="I114" s="608"/>
+      <c r="J114" s="609"/>
+      <c r="K114" s="607">
         <v>0.04</v>
       </c>
-      <c r="L114" s="599"/>
-      <c r="M114" s="600"/>
-      <c r="N114" s="598">
+      <c r="L114" s="608"/>
+      <c r="M114" s="609"/>
+      <c r="N114" s="607">
         <v>0.05</v>
       </c>
-      <c r="O114" s="599"/>
-      <c r="P114" s="600"/>
-      <c r="Q114" s="598">
+      <c r="O114" s="608"/>
+      <c r="P114" s="609"/>
+      <c r="Q114" s="607">
         <v>0.06</v>
       </c>
-      <c r="R114" s="599"/>
-      <c r="S114" s="600"/>
-      <c r="T114" s="598">
+      <c r="R114" s="608"/>
+      <c r="S114" s="609"/>
+      <c r="T114" s="607">
         <v>0.08</v>
       </c>
-      <c r="U114" s="599"/>
-      <c r="V114" s="600"/>
-      <c r="W114" s="598">
+      <c r="U114" s="608"/>
+      <c r="V114" s="609"/>
+      <c r="W114" s="607">
         <v>0.1</v>
       </c>
-      <c r="X114" s="599"/>
-      <c r="Y114" s="600"/>
-      <c r="Z114" s="598">
+      <c r="X114" s="608"/>
+      <c r="Y114" s="609"/>
+      <c r="Z114" s="607">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="599"/>
-      <c r="AB114" s="600"/>
-      <c r="AC114" s="598">
+      <c r="AA114" s="608"/>
+      <c r="AB114" s="609"/>
+      <c r="AC114" s="607">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="599"/>
-      <c r="AE114" s="600"/>
-      <c r="AF114" s="598">
+      <c r="AD114" s="608"/>
+      <c r="AE114" s="609"/>
+      <c r="AF114" s="607">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="599"/>
-      <c r="AH114" s="600"/>
-      <c r="AI114" s="598">
+      <c r="AG114" s="608"/>
+      <c r="AH114" s="609"/>
+      <c r="AI114" s="607">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="599"/>
-      <c r="AK114" s="600"/>
-      <c r="AL114" s="598">
+      <c r="AJ114" s="608"/>
+      <c r="AK114" s="609"/>
+      <c r="AL114" s="607">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="599"/>
-      <c r="AN114" s="600"/>
+      <c r="AM114" s="608"/>
+      <c r="AN114" s="609"/>
       <c r="AO114" s="29"/>
       <c r="AP114" s="29"/>
       <c r="AQ114" s="29"/>
@@ -41294,10 +41318,10 @@
       <c r="BI114" s="29"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="607"/>
-      <c r="B115" s="607"/>
-      <c r="C115" s="595"/>
-      <c r="D115" s="626"/>
+      <c r="A115" s="616"/>
+      <c r="B115" s="616"/>
+      <c r="C115" s="604"/>
+      <c r="D115" s="606"/>
       <c r="E115" s="480" t="s">
         <v>279</v>
       </c>
@@ -41912,10 +41936,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="589" t="s">
+      <c r="A119" s="598" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="590"/>
+      <c r="B119" s="599"/>
       <c r="C119" s="382">
         <f>SUM(C116:C118)</f>
         <v>306079.2</v>
@@ -42000,32 +42024,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="615" t="s">
+      <c r="A148" s="586" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="616"/>
-      <c r="C148" s="616"/>
-      <c r="D148" s="616"/>
-      <c r="E148" s="616"/>
-      <c r="F148" s="616"/>
-      <c r="G148" s="616"/>
-      <c r="H148" s="616"/>
-      <c r="I148" s="616"/>
-      <c r="J148" s="616"/>
-      <c r="K148" s="616"/>
-      <c r="L148" s="616"/>
-      <c r="M148" s="616"/>
-      <c r="N148" s="616"/>
-      <c r="O148" s="616"/>
-      <c r="P148" s="616"/>
-      <c r="Q148" s="616"/>
-      <c r="R148" s="616"/>
-      <c r="S148" s="616"/>
-      <c r="T148" s="616"/>
-      <c r="U148" s="616"/>
-      <c r="V148" s="616"/>
-      <c r="W148" s="616"/>
-      <c r="X148" s="617"/>
+      <c r="B148" s="587"/>
+      <c r="C148" s="587"/>
+      <c r="D148" s="587"/>
+      <c r="E148" s="587"/>
+      <c r="F148" s="587"/>
+      <c r="G148" s="587"/>
+      <c r="H148" s="587"/>
+      <c r="I148" s="587"/>
+      <c r="J148" s="587"/>
+      <c r="K148" s="587"/>
+      <c r="L148" s="587"/>
+      <c r="M148" s="587"/>
+      <c r="N148" s="587"/>
+      <c r="O148" s="587"/>
+      <c r="P148" s="587"/>
+      <c r="Q148" s="587"/>
+      <c r="R148" s="587"/>
+      <c r="S148" s="587"/>
+      <c r="T148" s="587"/>
+      <c r="U148" s="587"/>
+      <c r="V148" s="587"/>
+      <c r="W148" s="587"/>
+      <c r="X148" s="588"/>
       <c r="Y148" s="454"/>
       <c r="Z148" s="454"/>
       <c r="AA148" s="454"/>
@@ -42044,73 +42068,73 @@
       <c r="AN148" s="400"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="627" t="s">
+      <c r="B149" s="589" t="s">
         <v>250</v>
       </c>
-      <c r="C149" s="612" t="s">
+      <c r="C149" s="591" t="s">
         <v>251</v>
       </c>
-      <c r="D149" s="628" t="s">
+      <c r="D149" s="593" t="s">
         <v>252</v>
       </c>
-      <c r="E149" s="612" t="s">
+      <c r="E149" s="591" t="s">
         <v>253</v>
       </c>
-      <c r="F149" s="612" t="s">
+      <c r="F149" s="591" t="s">
         <v>254</v>
       </c>
-      <c r="G149" s="612" t="s">
+      <c r="G149" s="591" t="s">
         <v>255</v>
       </c>
-      <c r="H149" s="612" t="s">
+      <c r="H149" s="591" t="s">
         <v>256</v>
       </c>
-      <c r="I149" s="612" t="s">
+      <c r="I149" s="591" t="s">
         <v>257</v>
       </c>
-      <c r="J149" s="612" t="s">
+      <c r="J149" s="591" t="s">
         <v>258</v>
       </c>
-      <c r="K149" s="587" t="s">
+      <c r="K149" s="595" t="s">
         <v>259</v>
       </c>
-      <c r="L149" s="612" t="s">
+      <c r="L149" s="591" t="s">
         <v>260</v>
       </c>
-      <c r="M149" s="612" t="s">
+      <c r="M149" s="591" t="s">
         <v>261</v>
       </c>
-      <c r="N149" s="612" t="s">
+      <c r="N149" s="591" t="s">
         <v>262</v>
       </c>
-      <c r="O149" s="612" t="s">
+      <c r="O149" s="591" t="s">
         <v>263</v>
       </c>
-      <c r="P149" s="612" t="s">
+      <c r="P149" s="591" t="s">
         <v>264</v>
       </c>
-      <c r="Q149" s="612" t="s">
+      <c r="Q149" s="591" t="s">
         <v>265</v>
       </c>
-      <c r="R149" s="630" t="s">
+      <c r="R149" s="597" t="s">
         <v>266</v>
       </c>
-      <c r="S149" s="612" t="s">
+      <c r="S149" s="591" t="s">
         <v>267</v>
       </c>
-      <c r="T149" s="612" t="s">
+      <c r="T149" s="591" t="s">
         <v>268</v>
       </c>
-      <c r="U149" s="612" t="s">
+      <c r="U149" s="591" t="s">
         <v>269</v>
       </c>
-      <c r="V149" s="612" t="s">
+      <c r="V149" s="591" t="s">
         <v>270</v>
       </c>
-      <c r="W149" s="612" t="s">
+      <c r="W149" s="591" t="s">
         <v>271</v>
       </c>
-      <c r="X149" s="612" t="s">
+      <c r="X149" s="591" t="s">
         <v>272</v>
       </c>
       <c r="Y149" s="52"/>
@@ -42131,29 +42155,29 @@
       <c r="AN149" s="385"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="619"/>
-      <c r="C150" s="611"/>
-      <c r="D150" s="614"/>
-      <c r="E150" s="611"/>
-      <c r="F150" s="611"/>
-      <c r="G150" s="611"/>
-      <c r="H150" s="611"/>
-      <c r="I150" s="611"/>
-      <c r="J150" s="611"/>
-      <c r="K150" s="629"/>
-      <c r="L150" s="611"/>
-      <c r="M150" s="611"/>
-      <c r="N150" s="611"/>
-      <c r="O150" s="611"/>
-      <c r="P150" s="611"/>
-      <c r="Q150" s="611"/>
-      <c r="R150" s="629"/>
-      <c r="S150" s="611"/>
-      <c r="T150" s="611"/>
-      <c r="U150" s="611"/>
-      <c r="V150" s="611"/>
-      <c r="W150" s="611"/>
-      <c r="X150" s="611"/>
+      <c r="B150" s="590"/>
+      <c r="C150" s="592"/>
+      <c r="D150" s="594"/>
+      <c r="E150" s="592"/>
+      <c r="F150" s="592"/>
+      <c r="G150" s="592"/>
+      <c r="H150" s="592"/>
+      <c r="I150" s="592"/>
+      <c r="J150" s="592"/>
+      <c r="K150" s="596"/>
+      <c r="L150" s="592"/>
+      <c r="M150" s="592"/>
+      <c r="N150" s="592"/>
+      <c r="O150" s="592"/>
+      <c r="P150" s="592"/>
+      <c r="Q150" s="592"/>
+      <c r="R150" s="596"/>
+      <c r="S150" s="592"/>
+      <c r="T150" s="592"/>
+      <c r="U150" s="592"/>
+      <c r="V150" s="592"/>
+      <c r="W150" s="592"/>
+      <c r="X150" s="592"/>
       <c r="AA150" s="52"/>
       <c r="AB150" s="52"/>
       <c r="AC150" s="395"/>
@@ -42552,6 +42576,152 @@
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I6:P7"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="T102:T103"/>
+    <mergeCell ref="U102:U103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="A148:X148"/>
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="C149:C150"/>
@@ -42576,152 +42746,6 @@
     <mergeCell ref="Q149:Q150"/>
     <mergeCell ref="R149:R150"/>
     <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="T102:T103"/>
-    <mergeCell ref="U102:U103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I6:P7"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42730,7 +42754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -42780,11 +42804,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="610" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="604"/>
+      <c r="C7" s="611"/>
+      <c r="D7" s="613"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="471">
@@ -42928,7 +42952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -42976,16 +43000,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="601" t="s">
+      <c r="C3" s="610" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="602"/>
-      <c r="E3" s="604"/>
-      <c r="G3" s="601" t="s">
+      <c r="D3" s="611"/>
+      <c r="E3" s="613"/>
+      <c r="G3" s="610" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="602"/>
-      <c r="I3" s="604"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="613"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="514">
@@ -43117,19 +43141,19 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="634" t="s">
+      <c r="A13" s="637" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="635"/>
-      <c r="C13" s="635"/>
-      <c r="D13" s="635"/>
-      <c r="E13" s="635"/>
-      <c r="F13" s="635"/>
-      <c r="G13" s="635"/>
-      <c r="H13" s="635"/>
-      <c r="I13" s="635"/>
-      <c r="J13" s="635"/>
-      <c r="K13" s="636"/>
+      <c r="B13" s="638"/>
+      <c r="C13" s="638"/>
+      <c r="D13" s="638"/>
+      <c r="E13" s="638"/>
+      <c r="F13" s="638"/>
+      <c r="G13" s="638"/>
+      <c r="H13" s="638"/>
+      <c r="I13" s="638"/>
+      <c r="J13" s="638"/>
+      <c r="K13" s="639"/>
       <c r="L13" s="516"/>
       <c r="M13" s="516"/>
       <c r="N13" s="516"/>
@@ -43139,18 +43163,18 @@
       <c r="A14" s="517" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="637" t="s">
+      <c r="B14" s="640" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="638"/>
-      <c r="D14" s="638"/>
-      <c r="E14" s="638"/>
-      <c r="F14" s="638"/>
-      <c r="G14" s="638"/>
-      <c r="H14" s="638"/>
-      <c r="I14" s="638"/>
-      <c r="J14" s="638"/>
-      <c r="K14" s="638"/>
+      <c r="C14" s="641"/>
+      <c r="D14" s="641"/>
+      <c r="E14" s="641"/>
+      <c r="F14" s="641"/>
+      <c r="G14" s="641"/>
+      <c r="H14" s="641"/>
+      <c r="I14" s="641"/>
+      <c r="J14" s="641"/>
+      <c r="K14" s="641"/>
       <c r="L14" s="516"/>
       <c r="M14" s="516"/>
       <c r="N14" s="516"/>
@@ -43160,18 +43184,18 @@
       <c r="A15" s="517" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="639" t="s">
+      <c r="B15" s="642" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="640"/>
-      <c r="D15" s="640"/>
-      <c r="E15" s="640"/>
-      <c r="F15" s="640"/>
-      <c r="G15" s="640"/>
-      <c r="H15" s="640"/>
-      <c r="I15" s="640"/>
-      <c r="J15" s="640"/>
-      <c r="K15" s="641"/>
+      <c r="C15" s="643"/>
+      <c r="D15" s="643"/>
+      <c r="E15" s="643"/>
+      <c r="F15" s="643"/>
+      <c r="G15" s="643"/>
+      <c r="H15" s="643"/>
+      <c r="I15" s="643"/>
+      <c r="J15" s="643"/>
+      <c r="K15" s="644"/>
       <c r="L15" s="516"/>
       <c r="M15" s="516"/>
       <c r="N15" s="516"/>
@@ -43181,18 +43205,18 @@
       <c r="A16" s="517" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="637" t="s">
+      <c r="B16" s="640" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="638"/>
-      <c r="D16" s="638"/>
-      <c r="E16" s="638"/>
-      <c r="F16" s="638"/>
-      <c r="G16" s="638"/>
-      <c r="H16" s="638"/>
-      <c r="I16" s="638"/>
-      <c r="J16" s="638"/>
-      <c r="K16" s="638"/>
+      <c r="C16" s="641"/>
+      <c r="D16" s="641"/>
+      <c r="E16" s="641"/>
+      <c r="F16" s="641"/>
+      <c r="G16" s="641"/>
+      <c r="H16" s="641"/>
+      <c r="I16" s="641"/>
+      <c r="J16" s="641"/>
+      <c r="K16" s="641"/>
       <c r="L16" s="516"/>
       <c r="M16" s="516"/>
       <c r="N16" s="516"/>
@@ -43202,18 +43226,18 @@
       <c r="A17" s="517" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="642" t="s">
+      <c r="B17" s="645" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="640"/>
-      <c r="D17" s="640"/>
-      <c r="E17" s="640"/>
-      <c r="F17" s="640"/>
-      <c r="G17" s="640"/>
-      <c r="H17" s="640"/>
-      <c r="I17" s="640"/>
-      <c r="J17" s="640"/>
-      <c r="K17" s="641"/>
+      <c r="C17" s="643"/>
+      <c r="D17" s="643"/>
+      <c r="E17" s="643"/>
+      <c r="F17" s="643"/>
+      <c r="G17" s="643"/>
+      <c r="H17" s="643"/>
+      <c r="I17" s="643"/>
+      <c r="J17" s="643"/>
+      <c r="K17" s="644"/>
       <c r="L17" s="516"/>
       <c r="M17" s="516"/>
       <c r="N17" s="516"/>
@@ -43271,22 +43295,22 @@
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="643" t="s">
+      <c r="A21" s="634" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="644"/>
-      <c r="C21" s="644"/>
-      <c r="D21" s="644"/>
-      <c r="E21" s="644"/>
-      <c r="F21" s="644"/>
-      <c r="G21" s="644"/>
-      <c r="H21" s="644"/>
-      <c r="I21" s="644"/>
-      <c r="J21" s="644"/>
-      <c r="K21" s="644"/>
-      <c r="L21" s="644"/>
-      <c r="M21" s="644"/>
-      <c r="N21" s="645"/>
+      <c r="B21" s="635"/>
+      <c r="C21" s="635"/>
+      <c r="D21" s="635"/>
+      <c r="E21" s="635"/>
+      <c r="F21" s="635"/>
+      <c r="G21" s="635"/>
+      <c r="H21" s="635"/>
+      <c r="I21" s="635"/>
+      <c r="J21" s="635"/>
+      <c r="K21" s="635"/>
+      <c r="L21" s="635"/>
+      <c r="M21" s="635"/>
+      <c r="N21" s="636"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -43749,22 +43773,22 @@
       <c r="O33"/>
     </row>
     <row r="34" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="643" t="s">
+      <c r="A34" s="634" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="644"/>
-      <c r="C34" s="644"/>
-      <c r="D34" s="644"/>
-      <c r="E34" s="644"/>
-      <c r="F34" s="644"/>
-      <c r="G34" s="644"/>
-      <c r="H34" s="644"/>
-      <c r="I34" s="644"/>
-      <c r="J34" s="644"/>
-      <c r="K34" s="644"/>
-      <c r="L34" s="644"/>
-      <c r="M34" s="644"/>
-      <c r="N34" s="645"/>
+      <c r="B34" s="635"/>
+      <c r="C34" s="635"/>
+      <c r="D34" s="635"/>
+      <c r="E34" s="635"/>
+      <c r="F34" s="635"/>
+      <c r="G34" s="635"/>
+      <c r="H34" s="635"/>
+      <c r="I34" s="635"/>
+      <c r="J34" s="635"/>
+      <c r="K34" s="635"/>
+      <c r="L34" s="635"/>
+      <c r="M34" s="635"/>
+      <c r="N34" s="636"/>
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -44286,22 +44310,22 @@
       <c r="O47"/>
     </row>
     <row r="48" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="643" t="s">
+      <c r="A48" s="634" t="s">
         <v>287</v>
       </c>
-      <c r="B48" s="644"/>
-      <c r="C48" s="644"/>
-      <c r="D48" s="644"/>
-      <c r="E48" s="644"/>
-      <c r="F48" s="644"/>
-      <c r="G48" s="644"/>
-      <c r="H48" s="644"/>
-      <c r="I48" s="644"/>
-      <c r="J48" s="644"/>
-      <c r="K48" s="644"/>
-      <c r="L48" s="644"/>
-      <c r="M48" s="644"/>
-      <c r="N48" s="645"/>
+      <c r="B48" s="635"/>
+      <c r="C48" s="635"/>
+      <c r="D48" s="635"/>
+      <c r="E48" s="635"/>
+      <c r="F48" s="635"/>
+      <c r="G48" s="635"/>
+      <c r="H48" s="635"/>
+      <c r="I48" s="635"/>
+      <c r="J48" s="635"/>
+      <c r="K48" s="635"/>
+      <c r="L48" s="635"/>
+      <c r="M48" s="635"/>
+      <c r="N48" s="636"/>
       <c r="O48"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -44819,10 +44843,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{EE88690E-B271-47B8-B8C5-EF20CEA5BFB3}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{D06B0C1D-BCE5-4767-BC77-5E3EEB7DE11A}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{5578BAFC-6612-4368-A92B-FBAFB9FB1C0F}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{A1FA1BC4-440A-4476-9A31-64A0C4BA116A}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -44831,7 +44855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -44912,17 +44936,17 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="646" t="s">
+      <c r="B4" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="647"/>
-      <c r="D4" s="648"/>
+      <c r="C4" s="650"/>
+      <c r="D4" s="651"/>
       <c r="E4" s="39"/>
-      <c r="H4" s="646" t="s">
+      <c r="H4" s="649" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="647"/>
-      <c r="J4" s="648"/>
+      <c r="I4" s="650"/>
+      <c r="J4" s="651"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="372">
@@ -45021,19 +45045,19 @@
       <c r="N12"/>
     </row>
     <row r="13" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="649" t="s">
+      <c r="A13" s="652" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="650"/>
-      <c r="C13" s="650"/>
-      <c r="D13" s="650"/>
-      <c r="E13" s="650"/>
-      <c r="F13" s="650"/>
-      <c r="G13" s="650"/>
-      <c r="H13" s="650"/>
-      <c r="I13" s="650"/>
-      <c r="J13" s="650"/>
-      <c r="K13" s="651"/>
+      <c r="B13" s="653"/>
+      <c r="C13" s="653"/>
+      <c r="D13" s="653"/>
+      <c r="E13" s="653"/>
+      <c r="F13" s="653"/>
+      <c r="G13" s="653"/>
+      <c r="H13" s="653"/>
+      <c r="I13" s="653"/>
+      <c r="J13" s="653"/>
+      <c r="K13" s="654"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -45042,18 +45066,18 @@
       <c r="A14" s="505" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="652" t="s">
+      <c r="B14" s="655" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="653"/>
-      <c r="D14" s="653"/>
-      <c r="E14" s="653"/>
-      <c r="F14" s="653"/>
-      <c r="G14" s="653"/>
-      <c r="H14" s="653"/>
-      <c r="I14" s="653"/>
-      <c r="J14" s="653"/>
-      <c r="K14" s="653"/>
+      <c r="C14" s="656"/>
+      <c r="D14" s="656"/>
+      <c r="E14" s="656"/>
+      <c r="F14" s="656"/>
+      <c r="G14" s="656"/>
+      <c r="H14" s="656"/>
+      <c r="I14" s="656"/>
+      <c r="J14" s="656"/>
+      <c r="K14" s="656"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -45062,18 +45086,18 @@
       <c r="A15" s="505" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="654" t="s">
+      <c r="B15" s="657" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="655"/>
-      <c r="D15" s="655"/>
-      <c r="E15" s="655"/>
-      <c r="F15" s="655"/>
-      <c r="G15" s="655"/>
-      <c r="H15" s="655"/>
-      <c r="I15" s="655"/>
-      <c r="J15" s="655"/>
-      <c r="K15" s="656"/>
+      <c r="C15" s="658"/>
+      <c r="D15" s="658"/>
+      <c r="E15" s="658"/>
+      <c r="F15" s="658"/>
+      <c r="G15" s="658"/>
+      <c r="H15" s="658"/>
+      <c r="I15" s="658"/>
+      <c r="J15" s="658"/>
+      <c r="K15" s="659"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -45126,22 +45150,22 @@
       <c r="N18"/>
     </row>
     <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="657" t="s">
+      <c r="A19" s="646" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="658"/>
-      <c r="C19" s="658"/>
-      <c r="D19" s="658"/>
-      <c r="E19" s="658"/>
-      <c r="F19" s="658"/>
-      <c r="G19" s="658"/>
-      <c r="H19" s="658"/>
-      <c r="I19" s="658"/>
-      <c r="J19" s="658"/>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="658"/>
-      <c r="N19" s="659"/>
+      <c r="B19" s="647"/>
+      <c r="C19" s="647"/>
+      <c r="D19" s="647"/>
+      <c r="E19" s="647"/>
+      <c r="F19" s="647"/>
+      <c r="G19" s="647"/>
+      <c r="H19" s="647"/>
+      <c r="I19" s="647"/>
+      <c r="J19" s="647"/>
+      <c r="K19" s="647"/>
+      <c r="L19" s="647"/>
+      <c r="M19" s="647"/>
+      <c r="N19" s="648"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="506" t="s">
@@ -45393,22 +45417,22 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="657" t="s">
+      <c r="A28" s="646" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="658"/>
-      <c r="C28" s="658"/>
-      <c r="D28" s="658"/>
-      <c r="E28" s="658"/>
-      <c r="F28" s="658"/>
-      <c r="G28" s="658"/>
-      <c r="H28" s="658"/>
-      <c r="I28" s="658"/>
-      <c r="J28" s="658"/>
-      <c r="K28" s="658"/>
-      <c r="L28" s="658"/>
-      <c r="M28" s="658"/>
-      <c r="N28" s="659"/>
+      <c r="B28" s="647"/>
+      <c r="C28" s="647"/>
+      <c r="D28" s="647"/>
+      <c r="E28" s="647"/>
+      <c r="F28" s="647"/>
+      <c r="G28" s="647"/>
+      <c r="H28" s="647"/>
+      <c r="I28" s="647"/>
+      <c r="J28" s="647"/>
+      <c r="K28" s="647"/>
+      <c r="L28" s="647"/>
+      <c r="M28" s="647"/>
+      <c r="N28" s="648"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="506" t="s">
@@ -45656,22 +45680,22 @@
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="657" t="s">
+      <c r="A36" s="646" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="658"/>
-      <c r="C36" s="658"/>
-      <c r="D36" s="658"/>
-      <c r="E36" s="658"/>
-      <c r="F36" s="658"/>
-      <c r="G36" s="658"/>
-      <c r="H36" s="658"/>
-      <c r="I36" s="658"/>
-      <c r="J36" s="658"/>
-      <c r="K36" s="658"/>
-      <c r="L36" s="658"/>
-      <c r="M36" s="658"/>
-      <c r="N36" s="659"/>
+      <c r="B36" s="647"/>
+      <c r="C36" s="647"/>
+      <c r="D36" s="647"/>
+      <c r="E36" s="647"/>
+      <c r="F36" s="647"/>
+      <c r="G36" s="647"/>
+      <c r="H36" s="647"/>
+      <c r="I36" s="647"/>
+      <c r="J36" s="647"/>
+      <c r="K36" s="647"/>
+      <c r="L36" s="647"/>
+      <c r="M36" s="647"/>
+      <c r="N36" s="648"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="506" t="s">
@@ -45914,8 +45938,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{693E717E-3623-4745-8CD1-B0AEC031CA36}"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{CCB4BE5F-1524-43C3-A8A7-64221664E554}"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -45924,7 +45948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -46005,17 +46029,17 @@
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="672" t="s">
+      <c r="B4" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="673"/>
-      <c r="D4" s="674"/>
+      <c r="C4" s="663"/>
+      <c r="D4" s="664"/>
       <c r="E4" s="39"/>
-      <c r="H4" s="672" t="s">
+      <c r="H4" s="662" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="673"/>
-      <c r="J4" s="674"/>
+      <c r="I4" s="663"/>
+      <c r="J4" s="664"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
@@ -46082,28 +46106,28 @@
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="672" t="s">
+      <c r="B11" s="662" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="673"/>
-      <c r="D11" s="673"/>
-      <c r="E11" s="673"/>
-      <c r="F11" s="673"/>
-      <c r="G11" s="673"/>
-      <c r="H11" s="673"/>
-      <c r="I11" s="673"/>
-      <c r="J11" s="673"/>
-      <c r="K11" s="673"/>
-      <c r="L11" s="674"/>
+      <c r="C11" s="663"/>
+      <c r="D11" s="663"/>
+      <c r="E11" s="663"/>
+      <c r="F11" s="663"/>
+      <c r="G11" s="663"/>
+      <c r="H11" s="663"/>
+      <c r="I11" s="663"/>
+      <c r="J11" s="663"/>
+      <c r="K11" s="663"/>
+      <c r="L11" s="664"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="668" t="s">
+      <c r="B12" s="681" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="681" t="s">
+      <c r="C12" s="679" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="679" t="s">
+      <c r="D12" s="677" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="105" t="s">
@@ -46124,17 +46148,17 @@
       <c r="J12" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="670" t="s">
+      <c r="K12" s="671" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="670" t="s">
+      <c r="L12" s="671" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="669"/>
-      <c r="C13" s="682"/>
-      <c r="D13" s="680"/>
+      <c r="B13" s="682"/>
+      <c r="C13" s="680"/>
+      <c r="D13" s="678"/>
       <c r="E13" s="106">
         <v>0.1047</v>
       </c>
@@ -46153,8 +46177,8 @@
       <c r="J13" s="116">
         <v>0.03</v>
       </c>
-      <c r="K13" s="671"/>
-      <c r="L13" s="671"/>
+      <c r="K13" s="672"/>
+      <c r="L13" s="672"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="101" t="s">
@@ -46197,7 +46221,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="675" t="s">
+      <c r="B15" s="673" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="103"/>
@@ -46237,7 +46261,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="676"/>
+      <c r="B16" s="674"/>
       <c r="C16" s="69"/>
       <c r="D16" s="109">
         <v>52000</v>
@@ -46275,7 +46299,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="676"/>
+      <c r="B17" s="674"/>
       <c r="C17" s="69"/>
       <c r="D17" s="109">
         <v>52000</v>
@@ -46313,7 +46337,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="676"/>
+      <c r="B18" s="674"/>
       <c r="C18" s="69"/>
       <c r="D18" s="109">
         <v>48000</v>
@@ -46351,7 +46375,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="677"/>
+      <c r="B19" s="675"/>
       <c r="C19" s="104"/>
       <c r="D19" s="110">
         <v>40000</v>
@@ -46389,7 +46413,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="675" t="s">
+      <c r="B20" s="673" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="103"/>
@@ -46429,7 +46453,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="677"/>
+      <c r="B21" s="675"/>
       <c r="C21" s="104"/>
       <c r="D21" s="110">
         <v>35000</v>
@@ -46467,7 +46491,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="675" t="s">
+      <c r="B22" s="673" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="103"/>
@@ -46507,7 +46531,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="676"/>
+      <c r="B23" s="674"/>
       <c r="C23" s="69"/>
       <c r="D23" s="109">
         <v>32000</v>
@@ -46545,7 +46569,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="678"/>
+      <c r="B24" s="676"/>
       <c r="C24" s="69"/>
       <c r="D24" s="109">
         <v>32000</v>
@@ -46583,7 +46607,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="678"/>
+      <c r="B25" s="676"/>
       <c r="C25" s="72"/>
       <c r="D25" s="121">
         <v>16000</v>
@@ -46621,7 +46645,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="677"/>
+      <c r="B26" s="675"/>
       <c r="C26" s="104"/>
       <c r="D26" s="110">
         <v>32000</v>
@@ -46659,7 +46683,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="675" t="s">
+      <c r="B27" s="673" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="103"/>
@@ -46699,7 +46723,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="676"/>
+      <c r="B28" s="674"/>
       <c r="C28" s="69"/>
       <c r="D28" s="109">
         <v>42000</v>
@@ -46737,7 +46761,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="677"/>
+      <c r="B29" s="675"/>
       <c r="C29" s="104"/>
       <c r="D29" s="110">
         <v>40000</v>
@@ -46775,7 +46799,7 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="675" t="s">
+      <c r="B30" s="673" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="103"/>
@@ -46815,7 +46839,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="676"/>
+      <c r="B31" s="674"/>
       <c r="C31" s="69"/>
       <c r="D31" s="109">
         <v>40000</v>
@@ -46853,7 +46877,7 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="676"/>
+      <c r="B32" s="674"/>
       <c r="C32" s="69"/>
       <c r="D32" s="109">
         <v>35000</v>
@@ -46891,7 +46915,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="676"/>
+      <c r="B33" s="674"/>
       <c r="C33" s="69"/>
       <c r="D33" s="109">
         <v>38000</v>
@@ -46929,7 +46953,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="677"/>
+      <c r="B34" s="675"/>
       <c r="C34" s="104"/>
       <c r="D34" s="110">
         <v>42000</v>
@@ -46968,93 +46992,93 @@
     </row>
     <row r="37" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="660" t="s">
+      <c r="B38" s="665" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="661"/>
-      <c r="D38" s="661"/>
-      <c r="E38" s="661"/>
-      <c r="F38" s="661"/>
-      <c r="G38" s="661"/>
-      <c r="H38" s="661"/>
-      <c r="I38" s="661"/>
-      <c r="J38" s="661"/>
-      <c r="K38" s="661"/>
-      <c r="L38" s="661"/>
-      <c r="M38" s="661"/>
-      <c r="N38" s="661"/>
-      <c r="O38" s="661"/>
-      <c r="P38" s="661"/>
-      <c r="Q38" s="661"/>
-      <c r="R38" s="661"/>
-      <c r="S38" s="661"/>
-      <c r="T38" s="661"/>
-      <c r="U38" s="661"/>
-      <c r="V38" s="661"/>
-      <c r="W38" s="661"/>
-      <c r="X38" s="661"/>
-      <c r="Y38" s="661"/>
-      <c r="Z38" s="661"/>
-      <c r="AA38" s="662"/>
+      <c r="C38" s="666"/>
+      <c r="D38" s="666"/>
+      <c r="E38" s="666"/>
+      <c r="F38" s="666"/>
+      <c r="G38" s="666"/>
+      <c r="H38" s="666"/>
+      <c r="I38" s="666"/>
+      <c r="J38" s="666"/>
+      <c r="K38" s="666"/>
+      <c r="L38" s="666"/>
+      <c r="M38" s="666"/>
+      <c r="N38" s="666"/>
+      <c r="O38" s="666"/>
+      <c r="P38" s="666"/>
+      <c r="Q38" s="666"/>
+      <c r="R38" s="666"/>
+      <c r="S38" s="666"/>
+      <c r="T38" s="666"/>
+      <c r="U38" s="666"/>
+      <c r="V38" s="666"/>
+      <c r="W38" s="666"/>
+      <c r="X38" s="666"/>
+      <c r="Y38" s="666"/>
+      <c r="Z38" s="666"/>
+      <c r="AA38" s="667"/>
     </row>
     <row r="39" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="663" t="s">
+      <c r="B39" s="668" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="665" t="s">
+      <c r="C39" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="665"/>
-      <c r="E39" s="665" t="s">
+      <c r="D39" s="670"/>
+      <c r="E39" s="670" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="665"/>
-      <c r="G39" s="665" t="s">
+      <c r="F39" s="670"/>
+      <c r="G39" s="670" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="665"/>
-      <c r="I39" s="665" t="s">
+      <c r="H39" s="670"/>
+      <c r="I39" s="670" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="665"/>
-      <c r="K39" s="665" t="s">
+      <c r="J39" s="670"/>
+      <c r="K39" s="670" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="665"/>
-      <c r="M39" s="665" t="s">
+      <c r="L39" s="670"/>
+      <c r="M39" s="670" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="665"/>
-      <c r="O39" s="665" t="s">
+      <c r="N39" s="670"/>
+      <c r="O39" s="670" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="665"/>
-      <c r="Q39" s="665" t="s">
+      <c r="P39" s="670"/>
+      <c r="Q39" s="670" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="665"/>
-      <c r="S39" s="665" t="s">
+      <c r="R39" s="670"/>
+      <c r="S39" s="670" t="s">
         <v>47</v>
       </c>
-      <c r="T39" s="665"/>
-      <c r="U39" s="665" t="s">
+      <c r="T39" s="670"/>
+      <c r="U39" s="670" t="s">
         <v>48</v>
       </c>
-      <c r="V39" s="665"/>
-      <c r="W39" s="665" t="s">
+      <c r="V39" s="670"/>
+      <c r="W39" s="670" t="s">
         <v>49</v>
       </c>
-      <c r="X39" s="665"/>
-      <c r="Y39" s="665" t="s">
+      <c r="X39" s="670"/>
+      <c r="Y39" s="670" t="s">
         <v>99</v>
       </c>
-      <c r="Z39" s="665"/>
-      <c r="AA39" s="666" t="s">
+      <c r="Z39" s="670"/>
+      <c r="AA39" s="660" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="664"/>
+      <c r="B40" s="669"/>
       <c r="C40" s="122" t="s">
         <v>58</v>
       </c>
@@ -47127,7 +47151,7 @@
       <c r="Z40" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AA40" s="667"/>
+      <c r="AA40" s="661"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="136"/>
@@ -48136,93 +48160,93 @@
     </row>
     <row r="54" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="660" t="s">
+      <c r="B55" s="665" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="661"/>
-      <c r="D55" s="661"/>
-      <c r="E55" s="661"/>
-      <c r="F55" s="661"/>
-      <c r="G55" s="661"/>
-      <c r="H55" s="661"/>
-      <c r="I55" s="661"/>
-      <c r="J55" s="661"/>
-      <c r="K55" s="661"/>
-      <c r="L55" s="661"/>
-      <c r="M55" s="661"/>
-      <c r="N55" s="661"/>
-      <c r="O55" s="661"/>
-      <c r="P55" s="661"/>
-      <c r="Q55" s="661"/>
-      <c r="R55" s="661"/>
-      <c r="S55" s="661"/>
-      <c r="T55" s="661"/>
-      <c r="U55" s="661"/>
-      <c r="V55" s="661"/>
-      <c r="W55" s="661"/>
-      <c r="X55" s="661"/>
-      <c r="Y55" s="661"/>
-      <c r="Z55" s="661"/>
-      <c r="AA55" s="662"/>
+      <c r="C55" s="666"/>
+      <c r="D55" s="666"/>
+      <c r="E55" s="666"/>
+      <c r="F55" s="666"/>
+      <c r="G55" s="666"/>
+      <c r="H55" s="666"/>
+      <c r="I55" s="666"/>
+      <c r="J55" s="666"/>
+      <c r="K55" s="666"/>
+      <c r="L55" s="666"/>
+      <c r="M55" s="666"/>
+      <c r="N55" s="666"/>
+      <c r="O55" s="666"/>
+      <c r="P55" s="666"/>
+      <c r="Q55" s="666"/>
+      <c r="R55" s="666"/>
+      <c r="S55" s="666"/>
+      <c r="T55" s="666"/>
+      <c r="U55" s="666"/>
+      <c r="V55" s="666"/>
+      <c r="W55" s="666"/>
+      <c r="X55" s="666"/>
+      <c r="Y55" s="666"/>
+      <c r="Z55" s="666"/>
+      <c r="AA55" s="667"/>
     </row>
     <row r="56" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="663" t="s">
+      <c r="B56" s="668" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="665" t="s">
+      <c r="C56" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="665"/>
-      <c r="E56" s="665" t="s">
+      <c r="D56" s="670"/>
+      <c r="E56" s="670" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="665"/>
-      <c r="G56" s="665" t="s">
+      <c r="F56" s="670"/>
+      <c r="G56" s="670" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="665"/>
-      <c r="I56" s="665" t="s">
+      <c r="H56" s="670"/>
+      <c r="I56" s="670" t="s">
         <v>42</v>
       </c>
-      <c r="J56" s="665"/>
-      <c r="K56" s="665" t="s">
+      <c r="J56" s="670"/>
+      <c r="K56" s="670" t="s">
         <v>43</v>
       </c>
-      <c r="L56" s="665"/>
-      <c r="M56" s="665" t="s">
+      <c r="L56" s="670"/>
+      <c r="M56" s="670" t="s">
         <v>98</v>
       </c>
-      <c r="N56" s="665"/>
-      <c r="O56" s="665" t="s">
+      <c r="N56" s="670"/>
+      <c r="O56" s="670" t="s">
         <v>45</v>
       </c>
-      <c r="P56" s="665"/>
-      <c r="Q56" s="665" t="s">
+      <c r="P56" s="670"/>
+      <c r="Q56" s="670" t="s">
         <v>46</v>
       </c>
-      <c r="R56" s="665"/>
-      <c r="S56" s="665" t="s">
+      <c r="R56" s="670"/>
+      <c r="S56" s="670" t="s">
         <v>47</v>
       </c>
-      <c r="T56" s="665"/>
-      <c r="U56" s="665" t="s">
+      <c r="T56" s="670"/>
+      <c r="U56" s="670" t="s">
         <v>48</v>
       </c>
-      <c r="V56" s="665"/>
-      <c r="W56" s="665" t="s">
+      <c r="V56" s="670"/>
+      <c r="W56" s="670" t="s">
         <v>49</v>
       </c>
-      <c r="X56" s="665"/>
-      <c r="Y56" s="665" t="s">
+      <c r="X56" s="670"/>
+      <c r="Y56" s="670" t="s">
         <v>99</v>
       </c>
-      <c r="Z56" s="665"/>
-      <c r="AA56" s="666" t="s">
+      <c r="Z56" s="670"/>
+      <c r="AA56" s="660" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="664"/>
+      <c r="B57" s="669"/>
       <c r="C57" s="122" t="s">
         <v>58</v>
       </c>
@@ -48295,7 +48319,7 @@
       <c r="Z57" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AA57" s="667"/>
+      <c r="AA57" s="661"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="136"/>
@@ -49433,93 +49457,93 @@
     </row>
     <row r="71" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="660" t="s">
+      <c r="B72" s="665" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="661"/>
-      <c r="D72" s="661"/>
-      <c r="E72" s="661"/>
-      <c r="F72" s="661"/>
-      <c r="G72" s="661"/>
-      <c r="H72" s="661"/>
-      <c r="I72" s="661"/>
-      <c r="J72" s="661"/>
-      <c r="K72" s="661"/>
-      <c r="L72" s="661"/>
-      <c r="M72" s="661"/>
-      <c r="N72" s="661"/>
-      <c r="O72" s="661"/>
-      <c r="P72" s="661"/>
-      <c r="Q72" s="661"/>
-      <c r="R72" s="661"/>
-      <c r="S72" s="661"/>
-      <c r="T72" s="661"/>
-      <c r="U72" s="661"/>
-      <c r="V72" s="661"/>
-      <c r="W72" s="661"/>
-      <c r="X72" s="661"/>
-      <c r="Y72" s="661"/>
-      <c r="Z72" s="661"/>
-      <c r="AA72" s="662"/>
+      <c r="C72" s="666"/>
+      <c r="D72" s="666"/>
+      <c r="E72" s="666"/>
+      <c r="F72" s="666"/>
+      <c r="G72" s="666"/>
+      <c r="H72" s="666"/>
+      <c r="I72" s="666"/>
+      <c r="J72" s="666"/>
+      <c r="K72" s="666"/>
+      <c r="L72" s="666"/>
+      <c r="M72" s="666"/>
+      <c r="N72" s="666"/>
+      <c r="O72" s="666"/>
+      <c r="P72" s="666"/>
+      <c r="Q72" s="666"/>
+      <c r="R72" s="666"/>
+      <c r="S72" s="666"/>
+      <c r="T72" s="666"/>
+      <c r="U72" s="666"/>
+      <c r="V72" s="666"/>
+      <c r="W72" s="666"/>
+      <c r="X72" s="666"/>
+      <c r="Y72" s="666"/>
+      <c r="Z72" s="666"/>
+      <c r="AA72" s="667"/>
     </row>
     <row r="73" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="663" t="s">
+      <c r="B73" s="668" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="665" t="s">
+      <c r="C73" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="665"/>
-      <c r="E73" s="665" t="s">
+      <c r="D73" s="670"/>
+      <c r="E73" s="670" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="665"/>
-      <c r="G73" s="665" t="s">
+      <c r="F73" s="670"/>
+      <c r="G73" s="670" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="665"/>
-      <c r="I73" s="665" t="s">
+      <c r="H73" s="670"/>
+      <c r="I73" s="670" t="s">
         <v>42</v>
       </c>
-      <c r="J73" s="665"/>
-      <c r="K73" s="665" t="s">
+      <c r="J73" s="670"/>
+      <c r="K73" s="670" t="s">
         <v>43</v>
       </c>
-      <c r="L73" s="665"/>
-      <c r="M73" s="665" t="s">
+      <c r="L73" s="670"/>
+      <c r="M73" s="670" t="s">
         <v>98</v>
       </c>
-      <c r="N73" s="665"/>
-      <c r="O73" s="665" t="s">
+      <c r="N73" s="670"/>
+      <c r="O73" s="670" t="s">
         <v>45</v>
       </c>
-      <c r="P73" s="665"/>
-      <c r="Q73" s="665" t="s">
+      <c r="P73" s="670"/>
+      <c r="Q73" s="670" t="s">
         <v>46</v>
       </c>
-      <c r="R73" s="665"/>
-      <c r="S73" s="665" t="s">
+      <c r="R73" s="670"/>
+      <c r="S73" s="670" t="s">
         <v>47</v>
       </c>
-      <c r="T73" s="665"/>
-      <c r="U73" s="665" t="s">
+      <c r="T73" s="670"/>
+      <c r="U73" s="670" t="s">
         <v>48</v>
       </c>
-      <c r="V73" s="665"/>
-      <c r="W73" s="665" t="s">
+      <c r="V73" s="670"/>
+      <c r="W73" s="670" t="s">
         <v>49</v>
       </c>
-      <c r="X73" s="665"/>
-      <c r="Y73" s="665" t="s">
+      <c r="X73" s="670"/>
+      <c r="Y73" s="670" t="s">
         <v>99</v>
       </c>
-      <c r="Z73" s="665"/>
-      <c r="AA73" s="666" t="s">
+      <c r="Z73" s="670"/>
+      <c r="AA73" s="660" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="664"/>
+      <c r="B74" s="669"/>
       <c r="C74" s="122" t="s">
         <v>58</v>
       </c>
@@ -49592,7 +49616,7 @@
       <c r="Z74" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AA74" s="667"/>
+      <c r="AA74" s="661"/>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" s="136"/>
@@ -50801,6 +50825,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B55:AA55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="AA56:AA57"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B38:AA38"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="AA73:AA74"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:J4"/>
@@ -50817,48 +50883,6 @@
     <mergeCell ref="S73:T73"/>
     <mergeCell ref="U73:V73"/>
     <mergeCell ref="W73:X73"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B38:AA38"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="B55:AA55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="AA56:AA57"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="Y56:Z56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50867,7 +50891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -50906,11 +50930,11 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="672" t="s">
+      <c r="B3" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="673"/>
-      <c r="D3" s="674"/>
+      <c r="C3" s="663"/>
+      <c r="D3" s="664"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="34">
@@ -50957,11 +50981,11 @@
       <c r="D7" s="92"/>
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="672" t="s">
+      <c r="B8" s="662" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="673"/>
-      <c r="D8" s="674"/>
+      <c r="C8" s="663"/>
+      <c r="D8" s="664"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
